--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -46864,31 +46864,31 @@
         <v>2.59</v>
       </c>
       <c r="AU221">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV221">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW221">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX221">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY221">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ221">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA221">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB221">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC221">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BD221">
         <v>1.88</v>
@@ -47482,31 +47482,31 @@
         <v>2.42</v>
       </c>
       <c r="AU224">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV224">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW224">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX224">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY224">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ224">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA224">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB224">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC224">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD224">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,15 @@
     <t>['75', '79']</t>
   </si>
   <si>
+    <t>['41', '45+1']</t>
+  </si>
+  <si>
+    <t>['42', '55']</t>
+  </si>
+  <si>
+    <t>['40', '55', '59', '73', '90']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -1037,6 +1046,18 @@
   </si>
   <si>
     <t>['40', '88']</t>
+  </si>
+  <si>
+    <t>['2', '55']</t>
+  </si>
+  <si>
+    <t>['9', '59']</t>
+  </si>
+  <si>
+    <t>['39', '47', '89']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1735,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>0.87</v>
+      </c>
+      <c r="AQ2">
         <v>0.93</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1863,7 +1884,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1941,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2147,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2275,7 +2296,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2353,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ5">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2481,7 +2502,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2559,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2765,10 +2786,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2971,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3177,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ9">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3511,7 +3532,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3717,7 +3738,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -4335,7 +4356,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4541,7 +4562,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4747,7 +4768,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4825,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>0.83</v>
@@ -4953,7 +4974,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5031,10 +5052,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
         <v>1.5</v>
@@ -5237,10 +5258,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR19">
         <v>1.53</v>
@@ -5443,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR20">
         <v>2.32</v>
@@ -5571,7 +5592,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -5649,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR21">
         <v>1.91</v>
@@ -5855,10 +5876,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.3</v>
@@ -5983,7 +6004,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6061,10 +6082,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
         <v>2.02</v>
@@ -6189,7 +6210,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6267,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR24">
         <v>2.18</v>
@@ -6476,7 +6497,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>2.34</v>
@@ -6601,7 +6622,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6679,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6807,7 +6828,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6888,7 +6909,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -7219,7 +7240,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7425,7 +7446,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7915,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8043,7 +8064,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8249,7 +8270,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8455,7 +8476,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -8533,10 +8554,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR35">
         <v>1.13</v>
@@ -8739,10 +8760,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8945,10 +8966,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -9073,7 +9094,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9154,7 +9175,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9279,7 +9300,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9357,10 +9378,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR39">
         <v>1.7</v>
@@ -9563,10 +9584,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR40">
         <v>1.33</v>
@@ -9769,10 +9790,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ41">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR41">
         <v>2.11</v>
@@ -9897,7 +9918,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9975,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ42">
         <v>1.57</v>
@@ -10596,7 +10617,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10927,7 +10948,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11005,7 +11026,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11214,7 +11235,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ48">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR48">
         <v>1.4</v>
@@ -11339,7 +11360,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11623,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11751,7 +11772,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11829,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11957,7 +11978,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12038,7 +12059,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR52">
         <v>1.4</v>
@@ -12369,7 +12390,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12447,7 +12468,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12575,7 +12596,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12656,7 +12677,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR55">
         <v>1.29</v>
@@ -12862,7 +12883,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR56">
         <v>1.62</v>
@@ -13065,7 +13086,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ57">
         <v>0.71</v>
@@ -13193,7 +13214,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13271,10 +13292,10 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ58">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13399,7 +13420,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13477,7 +13498,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ59">
         <v>1.79</v>
@@ -13605,7 +13626,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13683,7 +13704,7 @@
         <v>2.33</v>
       </c>
       <c r="AP60">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13889,10 +13910,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR61">
         <v>1.32</v>
@@ -14098,7 +14119,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR62">
         <v>2.1</v>
@@ -14223,7 +14244,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14301,7 +14322,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
         <v>0.86</v>
@@ -14429,7 +14450,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14510,7 +14531,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.5</v>
@@ -14716,7 +14737,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15047,7 +15068,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15128,7 +15149,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -15253,7 +15274,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15540,7 +15561,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15746,7 +15767,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR70">
         <v>1.23</v>
@@ -15949,7 +15970,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ71">
         <v>0.71</v>
@@ -16077,7 +16098,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16155,7 +16176,7 @@
         <v>2.5</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16283,7 +16304,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16361,10 +16382,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR73">
         <v>1.73</v>
@@ -16489,7 +16510,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16567,7 +16588,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16695,7 +16716,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16979,7 +17000,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17107,7 +17128,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17185,10 +17206,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17394,7 +17415,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR78">
         <v>1.47</v>
@@ -17597,7 +17618,7 @@
         <v>2.25</v>
       </c>
       <c r="AP79">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17725,7 +17746,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17806,7 +17827,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ80">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -18009,10 +18030,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ81">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>1.46</v>
@@ -18137,7 +18158,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18421,7 +18442,7 @@
         <v>2.6</v>
       </c>
       <c r="AP83">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18630,7 +18651,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ84">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR84">
         <v>1.93</v>
@@ -18755,7 +18776,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18836,7 +18857,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ85">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18961,7 +18982,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19042,7 +19063,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR86">
         <v>1.09</v>
@@ -19167,7 +19188,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19245,7 +19266,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19373,7 +19394,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19451,10 +19472,10 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ88">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19866,7 +19887,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR90">
         <v>1.37</v>
@@ -19991,7 +20012,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20069,7 +20090,7 @@
         <v>1.8</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ91">
         <v>0.86</v>
@@ -20197,7 +20218,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20278,7 +20299,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20481,7 +20502,7 @@
         <v>2.17</v>
       </c>
       <c r="AP93">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20609,7 +20630,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20690,7 +20711,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ94">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.46</v>
@@ -20815,7 +20836,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20893,7 +20914,7 @@
         <v>2.2</v>
       </c>
       <c r="AP95">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ95">
         <v>1.5</v>
@@ -21102,7 +21123,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR96">
         <v>1.97</v>
@@ -21227,7 +21248,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21308,7 +21329,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ97">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR97">
         <v>1.75</v>
@@ -21433,7 +21454,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21511,10 +21532,10 @@
         <v>0.67</v>
       </c>
       <c r="AP98">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -21639,7 +21660,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21717,7 +21738,7 @@
         <v>2</v>
       </c>
       <c r="AP99">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
         <v>1.79</v>
@@ -21845,7 +21866,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21923,7 +21944,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ100">
         <v>1.29</v>
@@ -22051,7 +22072,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22338,7 +22359,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ102">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR102">
         <v>1.54</v>
@@ -22541,7 +22562,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22875,7 +22896,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22956,7 +22977,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR105">
         <v>1.31</v>
@@ -23081,7 +23102,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23159,7 +23180,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ106">
         <v>1.57</v>
@@ -23287,7 +23308,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23365,7 +23386,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ107">
         <v>0.71</v>
@@ -23574,7 +23595,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ108">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23905,7 +23926,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24189,7 +24210,7 @@
         <v>2.17</v>
       </c>
       <c r="AP111">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ111">
         <v>1.79</v>
@@ -24317,7 +24338,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24395,10 +24416,10 @@
         <v>1.13</v>
       </c>
       <c r="AP112">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ112">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR112">
         <v>1.21</v>
@@ -24523,7 +24544,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24601,10 +24622,10 @@
         <v>1.43</v>
       </c>
       <c r="AP113">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR113">
         <v>1.13</v>
@@ -24729,7 +24750,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24810,7 +24831,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ114">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -25013,10 +25034,10 @@
         <v>0.71</v>
       </c>
       <c r="AP115">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -25141,7 +25162,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25222,7 +25243,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR116">
         <v>1.92</v>
@@ -25347,7 +25368,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25425,7 +25446,7 @@
         <v>1.83</v>
       </c>
       <c r="AP117">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25840,7 +25861,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ119">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR119">
         <v>1.6</v>
@@ -25965,7 +25986,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26043,7 +26064,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120">
         <v>1.5</v>
@@ -26171,7 +26192,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26789,7 +26810,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26867,10 +26888,10 @@
         <v>2.25</v>
       </c>
       <c r="AP124">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR124">
         <v>1.57</v>
@@ -26995,7 +27016,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27073,7 +27094,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ125">
         <v>1.29</v>
@@ -27201,7 +27222,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27279,10 +27300,10 @@
         <v>1.43</v>
       </c>
       <c r="AP126">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR126">
         <v>1.29</v>
@@ -27485,10 +27506,10 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ127">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR127">
         <v>1.22</v>
@@ -27613,7 +27634,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27694,7 +27715,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27897,10 +27918,10 @@
         <v>0.63</v>
       </c>
       <c r="AP129">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR129">
         <v>1.47</v>
@@ -28103,7 +28124,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ130">
         <v>1.79</v>
@@ -28231,7 +28252,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28312,7 +28333,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR131">
         <v>1.65</v>
@@ -28515,7 +28536,7 @@
         <v>2.13</v>
       </c>
       <c r="AP132">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28643,7 +28664,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28724,7 +28745,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -29055,7 +29076,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29261,7 +29282,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29342,7 +29363,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ136">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR136">
         <v>1.63</v>
@@ -29545,7 +29566,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -29673,7 +29694,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29754,7 +29775,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR138">
         <v>1.48</v>
@@ -29960,7 +29981,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ139">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.24</v>
@@ -30163,10 +30184,10 @@
         <v>2.11</v>
       </c>
       <c r="AP140">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ140">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR140">
         <v>1.54</v>
@@ -30369,7 +30390,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ141">
         <v>1.29</v>
@@ -30575,10 +30596,10 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR142">
         <v>1.22</v>
@@ -30703,7 +30724,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30781,7 +30802,7 @@
         <v>1.75</v>
       </c>
       <c r="AP143">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ143">
         <v>1.79</v>
@@ -30987,10 +31008,10 @@
         <v>1</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ144">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR144">
         <v>1.23</v>
@@ -31115,7 +31136,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31321,7 +31342,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31399,10 +31420,10 @@
         <v>1.78</v>
       </c>
       <c r="AP146">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR146">
         <v>1.29</v>
@@ -31527,7 +31548,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31608,7 +31629,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR147">
         <v>1.58</v>
@@ -32017,7 +32038,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32145,7 +32166,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32223,7 +32244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150">
         <v>1.57</v>
@@ -32429,7 +32450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ151">
         <v>0.86</v>
@@ -32638,7 +32659,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR152">
         <v>1.75</v>
@@ -32841,7 +32862,7 @@
         <v>1.22</v>
       </c>
       <c r="AP153">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33047,10 +33068,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR154">
         <v>1.72</v>
@@ -33256,7 +33277,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ155">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33381,7 +33402,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33459,10 +33480,10 @@
         <v>1.1</v>
       </c>
       <c r="AP156">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR156">
         <v>1.5</v>
@@ -33793,7 +33814,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33871,7 +33892,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP158">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ158">
         <v>1.29</v>
@@ -34077,7 +34098,7 @@
         <v>1.2</v>
       </c>
       <c r="AP159">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ159">
         <v>0.86</v>
@@ -34283,7 +34304,7 @@
         <v>0.89</v>
       </c>
       <c r="AP160">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ160">
         <v>0.71</v>
@@ -34492,7 +34513,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ161">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR161">
         <v>1.21</v>
@@ -34617,7 +34638,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34698,7 +34719,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ162">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR162">
         <v>1.66</v>
@@ -34823,7 +34844,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34904,7 +34925,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR163">
         <v>1.41</v>
@@ -35029,7 +35050,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35107,7 +35128,7 @@
         <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ164">
         <v>1.79</v>
@@ -35235,7 +35256,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35313,7 +35334,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ165">
         <v>1.57</v>
@@ -35441,7 +35462,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35522,7 +35543,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
         <v>1.95</v>
@@ -35728,7 +35749,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ167">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR167">
         <v>1.73</v>
@@ -35931,7 +35952,7 @@
         <v>2</v>
       </c>
       <c r="AP168">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -36059,7 +36080,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36137,7 +36158,7 @@
         <v>1.7</v>
       </c>
       <c r="AP169">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ169">
         <v>1.5</v>
@@ -36343,7 +36364,7 @@
         <v>1.4</v>
       </c>
       <c r="AP170">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36552,7 +36573,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ171">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR171">
         <v>1.29</v>
@@ -36677,7 +36698,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36758,7 +36779,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ172">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36883,7 +36904,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36964,7 +36985,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ173">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37167,7 +37188,7 @@
         <v>0.8</v>
       </c>
       <c r="AP174">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ174">
         <v>1.29</v>
@@ -37295,7 +37316,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37788,7 +37809,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ177">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR177">
         <v>1.66</v>
@@ -38200,7 +38221,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ179">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR179">
         <v>1.85</v>
@@ -38403,10 +38424,10 @@
         <v>0.5</v>
       </c>
       <c r="AP180">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ180">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR180">
         <v>1.5</v>
@@ -38609,10 +38630,10 @@
         <v>0.91</v>
       </c>
       <c r="AP181">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR181">
         <v>1.46</v>
@@ -38943,7 +38964,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -39021,7 +39042,7 @@
         <v>1.3</v>
       </c>
       <c r="AP183">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ183">
         <v>1.57</v>
@@ -39149,7 +39170,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39227,7 +39248,7 @@
         <v>1.82</v>
       </c>
       <c r="AP184">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ184">
         <v>1.79</v>
@@ -39355,7 +39376,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39433,7 +39454,7 @@
         <v>1.27</v>
       </c>
       <c r="AP185">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39642,7 +39663,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ186">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR186">
         <v>1.37</v>
@@ -39767,7 +39788,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -40054,7 +40075,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ188">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR188">
         <v>1.64</v>
@@ -40260,7 +40281,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ189">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR189">
         <v>1.75</v>
@@ -40385,7 +40406,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40463,7 +40484,7 @@
         <v>1.18</v>
       </c>
       <c r="AP190">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ190">
         <v>1.57</v>
@@ -40591,7 +40612,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40669,7 +40690,7 @@
         <v>1.64</v>
       </c>
       <c r="AP191">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ191">
         <v>1.5</v>
@@ -41084,7 +41105,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ193">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR193">
         <v>1.39</v>
@@ -41287,10 +41308,10 @@
         <v>0.42</v>
       </c>
       <c r="AP194">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ194">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR194">
         <v>1.81</v>
@@ -41493,10 +41514,10 @@
         <v>1.92</v>
       </c>
       <c r="AP195">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ195">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR195">
         <v>1.53</v>
@@ -41621,7 +41642,7 @@
         <v>153</v>
       </c>
       <c r="P196" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>2.75</v>
@@ -41699,10 +41720,10 @@
         <v>1.92</v>
       </c>
       <c r="AP196">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ196">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR196">
         <v>1.55</v>
@@ -41827,7 +41848,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>1.8</v>
@@ -41905,7 +41926,7 @@
         <v>0.82</v>
       </c>
       <c r="AP197">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ197">
         <v>0.71</v>
@@ -42111,10 +42132,10 @@
         <v>0.83</v>
       </c>
       <c r="AP198">
+        <v>0.87</v>
+      </c>
+      <c r="AQ198">
         <v>0.93</v>
-      </c>
-      <c r="AQ198">
-        <v>1</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42239,7 +42260,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q199">
         <v>2.63</v>
@@ -42320,7 +42341,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ199">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR199">
         <v>1.33</v>
@@ -42526,7 +42547,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ200">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR200">
         <v>1.42</v>
@@ -42729,7 +42750,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ201">
         <v>0.86</v>
@@ -43144,7 +43165,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ203">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR203">
         <v>1.33</v>
@@ -43347,7 +43368,7 @@
         <v>0.83</v>
       </c>
       <c r="AP204">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ204">
         <v>0.71</v>
@@ -43475,7 +43496,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43681,7 +43702,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -43887,7 +43908,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -44299,7 +44320,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>2</v>
@@ -44505,7 +44526,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q210">
         <v>2</v>
@@ -44583,10 +44604,10 @@
         <v>0.62</v>
       </c>
       <c r="AP210">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ210">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AR210">
         <v>1.65</v>
@@ -44789,10 +44810,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP211">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ211">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AR211">
         <v>1.35</v>
@@ -44917,7 +44938,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>5.5</v>
@@ -44995,10 +45016,10 @@
         <v>2</v>
       </c>
       <c r="AP212">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ212">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR212">
         <v>1.11</v>
@@ -45123,7 +45144,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45201,10 +45222,10 @@
         <v>1.85</v>
       </c>
       <c r="AP213">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ213">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR213">
         <v>1.77</v>
@@ -45329,7 +45350,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45407,10 +45428,10 @@
         <v>1.38</v>
       </c>
       <c r="AP214">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ214">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR214">
         <v>1.34</v>
@@ -45535,7 +45556,7 @@
         <v>227</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45613,10 +45634,10 @@
         <v>1.23</v>
       </c>
       <c r="AP215">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ215">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45819,10 +45840,10 @@
         <v>0.85</v>
       </c>
       <c r="AP216">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ216">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR216">
         <v>1.37</v>
@@ -46025,10 +46046,10 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ217">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR217">
         <v>1.53</v>
@@ -46359,7 +46380,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>3.95</v>
@@ -46565,7 +46586,7 @@
         <v>87</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -47595,7 +47616,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q225">
         <v>1.83</v>
@@ -47752,6 +47773,1654 @@
       </c>
       <c r="BP225">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7295186</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F226">
+        <v>29</v>
+      </c>
+      <c r="G226" t="s">
+        <v>71</v>
+      </c>
+      <c r="H226" t="s">
+        <v>80</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>211</v>
+      </c>
+      <c r="P226" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q226">
+        <v>2.4</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.4</v>
+      </c>
+      <c r="U226">
+        <v>2.75</v>
+      </c>
+      <c r="V226">
+        <v>3</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>8</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>1.85</v>
+      </c>
+      <c r="AA226">
+        <v>3.2</v>
+      </c>
+      <c r="AB226">
+        <v>3.89</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>11</v>
+      </c>
+      <c r="AE226">
+        <v>1.33</v>
+      </c>
+      <c r="AF226">
+        <v>3.4</v>
+      </c>
+      <c r="AG226">
+        <v>2</v>
+      </c>
+      <c r="AH226">
+        <v>1.88</v>
+      </c>
+      <c r="AI226">
+        <v>1.8</v>
+      </c>
+      <c r="AJ226">
+        <v>1.95</v>
+      </c>
+      <c r="AK226">
+        <v>1.2</v>
+      </c>
+      <c r="AL226">
+        <v>1.24</v>
+      </c>
+      <c r="AM226">
+        <v>2.1</v>
+      </c>
+      <c r="AN226">
+        <v>1.71</v>
+      </c>
+      <c r="AO226">
+        <v>1.21</v>
+      </c>
+      <c r="AP226">
+        <v>1.8</v>
+      </c>
+      <c r="AQ226">
+        <v>1.13</v>
+      </c>
+      <c r="AR226">
+        <v>1.34</v>
+      </c>
+      <c r="AS226">
+        <v>1.28</v>
+      </c>
+      <c r="AT226">
+        <v>2.62</v>
+      </c>
+      <c r="AU226">
+        <v>4</v>
+      </c>
+      <c r="AV226">
+        <v>6</v>
+      </c>
+      <c r="AW226">
+        <v>7</v>
+      </c>
+      <c r="AX226">
+        <v>2</v>
+      </c>
+      <c r="AY226">
+        <v>17</v>
+      </c>
+      <c r="AZ226">
+        <v>9</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>2</v>
+      </c>
+      <c r="BC226">
+        <v>5</v>
+      </c>
+      <c r="BD226">
+        <v>0</v>
+      </c>
+      <c r="BE226">
+        <v>0</v>
+      </c>
+      <c r="BF226">
+        <v>0</v>
+      </c>
+      <c r="BG226">
+        <v>0</v>
+      </c>
+      <c r="BH226">
+        <v>0</v>
+      </c>
+      <c r="BI226">
+        <v>0</v>
+      </c>
+      <c r="BJ226">
+        <v>0</v>
+      </c>
+      <c r="BK226">
+        <v>0</v>
+      </c>
+      <c r="BL226">
+        <v>0</v>
+      </c>
+      <c r="BM226">
+        <v>0</v>
+      </c>
+      <c r="BN226">
+        <v>0</v>
+      </c>
+      <c r="BO226">
+        <v>0</v>
+      </c>
+      <c r="BP226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7295187</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>72</v>
+      </c>
+      <c r="H227" t="s">
+        <v>84</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>234</v>
+      </c>
+      <c r="P227" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q227">
+        <v>2.88</v>
+      </c>
+      <c r="R227">
+        <v>2.4</v>
+      </c>
+      <c r="S227">
+        <v>3.1</v>
+      </c>
+      <c r="T227">
+        <v>1.29</v>
+      </c>
+      <c r="U227">
+        <v>3.5</v>
+      </c>
+      <c r="V227">
+        <v>2.25</v>
+      </c>
+      <c r="W227">
+        <v>1.57</v>
+      </c>
+      <c r="X227">
+        <v>5.5</v>
+      </c>
+      <c r="Y227">
+        <v>1.14</v>
+      </c>
+      <c r="Z227">
+        <v>1.7</v>
+      </c>
+      <c r="AA227">
+        <v>5.11</v>
+      </c>
+      <c r="AB227">
+        <v>3.08</v>
+      </c>
+      <c r="AC227">
+        <v>1.02</v>
+      </c>
+      <c r="AD227">
+        <v>19</v>
+      </c>
+      <c r="AE227">
+        <v>1.18</v>
+      </c>
+      <c r="AF227">
+        <v>5</v>
+      </c>
+      <c r="AG227">
+        <v>1.5</v>
+      </c>
+      <c r="AH227">
+        <v>2.4</v>
+      </c>
+      <c r="AI227">
+        <v>1.44</v>
+      </c>
+      <c r="AJ227">
+        <v>2.63</v>
+      </c>
+      <c r="AK227">
+        <v>1.52</v>
+      </c>
+      <c r="AL227">
+        <v>1.22</v>
+      </c>
+      <c r="AM227">
+        <v>1.58</v>
+      </c>
+      <c r="AN227">
+        <v>1.71</v>
+      </c>
+      <c r="AO227">
+        <v>2.07</v>
+      </c>
+      <c r="AP227">
+        <v>1.8</v>
+      </c>
+      <c r="AQ227">
+        <v>1.93</v>
+      </c>
+      <c r="AR227">
+        <v>1.77</v>
+      </c>
+      <c r="AS227">
+        <v>1.51</v>
+      </c>
+      <c r="AT227">
+        <v>3.28</v>
+      </c>
+      <c r="AU227">
+        <v>6</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>6</v>
+      </c>
+      <c r="AX227">
+        <v>9</v>
+      </c>
+      <c r="AY227">
+        <v>13</v>
+      </c>
+      <c r="AZ227">
+        <v>15</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>3</v>
+      </c>
+      <c r="BC227">
+        <v>7</v>
+      </c>
+      <c r="BD227">
+        <v>0</v>
+      </c>
+      <c r="BE227">
+        <v>0</v>
+      </c>
+      <c r="BF227">
+        <v>0</v>
+      </c>
+      <c r="BG227">
+        <v>0</v>
+      </c>
+      <c r="BH227">
+        <v>0</v>
+      </c>
+      <c r="BI227">
+        <v>0</v>
+      </c>
+      <c r="BJ227">
+        <v>0</v>
+      </c>
+      <c r="BK227">
+        <v>0</v>
+      </c>
+      <c r="BL227">
+        <v>0</v>
+      </c>
+      <c r="BM227">
+        <v>0</v>
+      </c>
+      <c r="BN227">
+        <v>0</v>
+      </c>
+      <c r="BO227">
+        <v>0</v>
+      </c>
+      <c r="BP227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7295188</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F228">
+        <v>29</v>
+      </c>
+      <c r="G228" t="s">
+        <v>70</v>
+      </c>
+      <c r="H228" t="s">
+        <v>78</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>87</v>
+      </c>
+      <c r="P228" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q228">
+        <v>8</v>
+      </c>
+      <c r="R228">
+        <v>2.75</v>
+      </c>
+      <c r="S228">
+        <v>1.67</v>
+      </c>
+      <c r="T228">
+        <v>1.22</v>
+      </c>
+      <c r="U228">
+        <v>4</v>
+      </c>
+      <c r="V228">
+        <v>2.1</v>
+      </c>
+      <c r="W228">
+        <v>1.67</v>
+      </c>
+      <c r="X228">
+        <v>4.5</v>
+      </c>
+      <c r="Y228">
+        <v>1.18</v>
+      </c>
+      <c r="Z228">
+        <v>5.63</v>
+      </c>
+      <c r="AA228">
+        <v>2.15</v>
+      </c>
+      <c r="AB228">
+        <v>2.14</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>23</v>
+      </c>
+      <c r="AE228">
+        <v>1.13</v>
+      </c>
+      <c r="AF228">
+        <v>6</v>
+      </c>
+      <c r="AG228">
+        <v>1.4</v>
+      </c>
+      <c r="AH228">
+        <v>2.75</v>
+      </c>
+      <c r="AI228">
+        <v>1.91</v>
+      </c>
+      <c r="AJ228">
+        <v>1.91</v>
+      </c>
+      <c r="AK228">
+        <v>3.75</v>
+      </c>
+      <c r="AL228">
+        <v>1.1</v>
+      </c>
+      <c r="AM228">
+        <v>1.02</v>
+      </c>
+      <c r="AN228">
+        <v>0.93</v>
+      </c>
+      <c r="AO228">
+        <v>1.79</v>
+      </c>
+      <c r="AP228">
+        <v>0.87</v>
+      </c>
+      <c r="AQ228">
+        <v>1.87</v>
+      </c>
+      <c r="AR228">
+        <v>1.09</v>
+      </c>
+      <c r="AS228">
+        <v>1.46</v>
+      </c>
+      <c r="AT228">
+        <v>2.55</v>
+      </c>
+      <c r="AU228">
+        <v>3</v>
+      </c>
+      <c r="AV228">
+        <v>9</v>
+      </c>
+      <c r="AW228">
+        <v>0</v>
+      </c>
+      <c r="AX228">
+        <v>2</v>
+      </c>
+      <c r="AY228">
+        <v>6</v>
+      </c>
+      <c r="AZ228">
+        <v>15</v>
+      </c>
+      <c r="BA228">
+        <v>0</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>5</v>
+      </c>
+      <c r="BD228">
+        <v>0</v>
+      </c>
+      <c r="BE228">
+        <v>0</v>
+      </c>
+      <c r="BF228">
+        <v>0</v>
+      </c>
+      <c r="BG228">
+        <v>0</v>
+      </c>
+      <c r="BH228">
+        <v>0</v>
+      </c>
+      <c r="BI228">
+        <v>0</v>
+      </c>
+      <c r="BJ228">
+        <v>0</v>
+      </c>
+      <c r="BK228">
+        <v>0</v>
+      </c>
+      <c r="BL228">
+        <v>0</v>
+      </c>
+      <c r="BM228">
+        <v>0</v>
+      </c>
+      <c r="BN228">
+        <v>0</v>
+      </c>
+      <c r="BO228">
+        <v>0</v>
+      </c>
+      <c r="BP228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7295189</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F229">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>75</v>
+      </c>
+      <c r="H229" t="s">
+        <v>81</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>186</v>
+      </c>
+      <c r="P229" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>2.63</v>
+      </c>
+      <c r="S229">
+        <v>5</v>
+      </c>
+      <c r="T229">
+        <v>1.22</v>
+      </c>
+      <c r="U229">
+        <v>4</v>
+      </c>
+      <c r="V229">
+        <v>2.1</v>
+      </c>
+      <c r="W229">
+        <v>1.67</v>
+      </c>
+      <c r="X229">
+        <v>4.5</v>
+      </c>
+      <c r="Y229">
+        <v>1.18</v>
+      </c>
+      <c r="Z229">
+        <v>1.29</v>
+      </c>
+      <c r="AA229">
+        <v>7.18</v>
+      </c>
+      <c r="AB229">
+        <v>5.09</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>1.12</v>
+      </c>
+      <c r="AF229">
+        <v>6.5</v>
+      </c>
+      <c r="AG229">
+        <v>1.36</v>
+      </c>
+      <c r="AH229">
+        <v>2.9</v>
+      </c>
+      <c r="AI229">
+        <v>1.5</v>
+      </c>
+      <c r="AJ229">
+        <v>2.5</v>
+      </c>
+      <c r="AK229">
+        <v>1.16</v>
+      </c>
+      <c r="AL229">
+        <v>1.16</v>
+      </c>
+      <c r="AM229">
+        <v>2.55</v>
+      </c>
+      <c r="AN229">
+        <v>2.21</v>
+      </c>
+      <c r="AO229">
+        <v>1.5</v>
+      </c>
+      <c r="AP229">
+        <v>2.13</v>
+      </c>
+      <c r="AQ229">
+        <v>1.47</v>
+      </c>
+      <c r="AR229">
+        <v>1.56</v>
+      </c>
+      <c r="AS229">
+        <v>1.33</v>
+      </c>
+      <c r="AT229">
+        <v>2.89</v>
+      </c>
+      <c r="AU229">
+        <v>5</v>
+      </c>
+      <c r="AV229">
+        <v>5</v>
+      </c>
+      <c r="AW229">
+        <v>11</v>
+      </c>
+      <c r="AX229">
+        <v>2</v>
+      </c>
+      <c r="AY229">
+        <v>22</v>
+      </c>
+      <c r="AZ229">
+        <v>10</v>
+      </c>
+      <c r="BA229">
+        <v>9</v>
+      </c>
+      <c r="BB229">
+        <v>4</v>
+      </c>
+      <c r="BC229">
+        <v>13</v>
+      </c>
+      <c r="BD229">
+        <v>0</v>
+      </c>
+      <c r="BE229">
+        <v>0</v>
+      </c>
+      <c r="BF229">
+        <v>0</v>
+      </c>
+      <c r="BG229">
+        <v>0</v>
+      </c>
+      <c r="BH229">
+        <v>0</v>
+      </c>
+      <c r="BI229">
+        <v>0</v>
+      </c>
+      <c r="BJ229">
+        <v>0</v>
+      </c>
+      <c r="BK229">
+        <v>0</v>
+      </c>
+      <c r="BL229">
+        <v>0</v>
+      </c>
+      <c r="BM229">
+        <v>0</v>
+      </c>
+      <c r="BN229">
+        <v>0</v>
+      </c>
+      <c r="BO229">
+        <v>0</v>
+      </c>
+      <c r="BP229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7295190</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F230">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>77</v>
+      </c>
+      <c r="H230" t="s">
+        <v>79</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>3</v>
+      </c>
+      <c r="O230" t="s">
+        <v>211</v>
+      </c>
+      <c r="P230" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q230">
+        <v>2.75</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>4.33</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
+        <v>2.63</v>
+      </c>
+      <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>10</v>
+      </c>
+      <c r="Y230">
+        <v>1.06</v>
+      </c>
+      <c r="Z230">
+        <v>2.78</v>
+      </c>
+      <c r="AA230">
+        <v>2.5</v>
+      </c>
+      <c r="AB230">
+        <v>2.87</v>
+      </c>
+      <c r="AC230">
+        <v>1.06</v>
+      </c>
+      <c r="AD230">
+        <v>10</v>
+      </c>
+      <c r="AE230">
+        <v>1.36</v>
+      </c>
+      <c r="AF230">
+        <v>3.2</v>
+      </c>
+      <c r="AG230">
+        <v>2</v>
+      </c>
+      <c r="AH230">
+        <v>1.7</v>
+      </c>
+      <c r="AI230">
+        <v>1.95</v>
+      </c>
+      <c r="AJ230">
+        <v>1.8</v>
+      </c>
+      <c r="AK230">
+        <v>1.26</v>
+      </c>
+      <c r="AL230">
+        <v>1.26</v>
+      </c>
+      <c r="AM230">
+        <v>1.87</v>
+      </c>
+      <c r="AN230">
+        <v>0.93</v>
+      </c>
+      <c r="AO230">
+        <v>0.71</v>
+      </c>
+      <c r="AP230">
+        <v>0.87</v>
+      </c>
+      <c r="AQ230">
+        <v>0.87</v>
+      </c>
+      <c r="AR230">
+        <v>1.31</v>
+      </c>
+      <c r="AS230">
+        <v>0.98</v>
+      </c>
+      <c r="AT230">
+        <v>2.29</v>
+      </c>
+      <c r="AU230">
+        <v>4</v>
+      </c>
+      <c r="AV230">
+        <v>8</v>
+      </c>
+      <c r="AW230">
+        <v>3</v>
+      </c>
+      <c r="AX230">
+        <v>1</v>
+      </c>
+      <c r="AY230">
+        <v>7</v>
+      </c>
+      <c r="AZ230">
+        <v>11</v>
+      </c>
+      <c r="BA230">
+        <v>3</v>
+      </c>
+      <c r="BB230">
+        <v>4</v>
+      </c>
+      <c r="BC230">
+        <v>7</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>0</v>
+      </c>
+      <c r="BG230">
+        <v>0</v>
+      </c>
+      <c r="BH230">
+        <v>0</v>
+      </c>
+      <c r="BI230">
+        <v>0</v>
+      </c>
+      <c r="BJ230">
+        <v>0</v>
+      </c>
+      <c r="BK230">
+        <v>0</v>
+      </c>
+      <c r="BL230">
+        <v>0</v>
+      </c>
+      <c r="BM230">
+        <v>0</v>
+      </c>
+      <c r="BN230">
+        <v>0</v>
+      </c>
+      <c r="BO230">
+        <v>0</v>
+      </c>
+      <c r="BP230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7295191</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F231">
+        <v>29</v>
+      </c>
+      <c r="G231" t="s">
+        <v>74</v>
+      </c>
+      <c r="H231" t="s">
+        <v>85</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>87</v>
+      </c>
+      <c r="P231" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q231">
+        <v>2.63</v>
+      </c>
+      <c r="R231">
+        <v>2.38</v>
+      </c>
+      <c r="S231">
+        <v>3.6</v>
+      </c>
+      <c r="T231">
+        <v>1.3</v>
+      </c>
+      <c r="U231">
+        <v>3.4</v>
+      </c>
+      <c r="V231">
+        <v>2.5</v>
+      </c>
+      <c r="W231">
+        <v>1.5</v>
+      </c>
+      <c r="X231">
+        <v>6</v>
+      </c>
+      <c r="Y231">
+        <v>1.13</v>
+      </c>
+      <c r="Z231">
+        <v>2.1</v>
+      </c>
+      <c r="AA231">
+        <v>8</v>
+      </c>
+      <c r="AB231">
+        <v>1.96</v>
+      </c>
+      <c r="AC231">
+        <v>1.03</v>
+      </c>
+      <c r="AD231">
+        <v>15</v>
+      </c>
+      <c r="AE231">
+        <v>1.2</v>
+      </c>
+      <c r="AF231">
+        <v>4.5</v>
+      </c>
+      <c r="AG231">
+        <v>1.57</v>
+      </c>
+      <c r="AH231">
+        <v>2.25</v>
+      </c>
+      <c r="AI231">
+        <v>1.53</v>
+      </c>
+      <c r="AJ231">
+        <v>2.38</v>
+      </c>
+      <c r="AK231">
+        <v>1.35</v>
+      </c>
+      <c r="AL231">
+        <v>1.24</v>
+      </c>
+      <c r="AM231">
+        <v>1.78</v>
+      </c>
+      <c r="AN231">
+        <v>0.86</v>
+      </c>
+      <c r="AO231">
+        <v>0.57</v>
+      </c>
+      <c r="AP231">
+        <v>0.8</v>
+      </c>
+      <c r="AQ231">
+        <v>0.73</v>
+      </c>
+      <c r="AR231">
+        <v>1.41</v>
+      </c>
+      <c r="AS231">
+        <v>1.28</v>
+      </c>
+      <c r="AT231">
+        <v>2.69</v>
+      </c>
+      <c r="AU231">
+        <v>5</v>
+      </c>
+      <c r="AV231">
+        <v>8</v>
+      </c>
+      <c r="AW231">
+        <v>8</v>
+      </c>
+      <c r="AX231">
+        <v>3</v>
+      </c>
+      <c r="AY231">
+        <v>17</v>
+      </c>
+      <c r="AZ231">
+        <v>14</v>
+      </c>
+      <c r="BA231">
+        <v>4</v>
+      </c>
+      <c r="BB231">
+        <v>2</v>
+      </c>
+      <c r="BC231">
+        <v>6</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>0</v>
+      </c>
+      <c r="BF231">
+        <v>0</v>
+      </c>
+      <c r="BG231">
+        <v>0</v>
+      </c>
+      <c r="BH231">
+        <v>0</v>
+      </c>
+      <c r="BI231">
+        <v>0</v>
+      </c>
+      <c r="BJ231">
+        <v>0</v>
+      </c>
+      <c r="BK231">
+        <v>0</v>
+      </c>
+      <c r="BL231">
+        <v>0</v>
+      </c>
+      <c r="BM231">
+        <v>0</v>
+      </c>
+      <c r="BN231">
+        <v>0</v>
+      </c>
+      <c r="BO231">
+        <v>0</v>
+      </c>
+      <c r="BP231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7295192</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F232">
+        <v>29</v>
+      </c>
+      <c r="G232" t="s">
+        <v>73</v>
+      </c>
+      <c r="H232" t="s">
+        <v>82</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>235</v>
+      </c>
+      <c r="P232" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q232">
+        <v>2.25</v>
+      </c>
+      <c r="R232">
+        <v>2.3</v>
+      </c>
+      <c r="S232">
+        <v>4.75</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.25</v>
+      </c>
+      <c r="V232">
+        <v>2.5</v>
+      </c>
+      <c r="W232">
+        <v>1.5</v>
+      </c>
+      <c r="X232">
+        <v>6.5</v>
+      </c>
+      <c r="Y232">
+        <v>1.11</v>
+      </c>
+      <c r="Z232">
+        <v>1.87</v>
+      </c>
+      <c r="AA232">
+        <v>2.53</v>
+      </c>
+      <c r="AB232">
+        <v>5.61</v>
+      </c>
+      <c r="AC232">
+        <v>1.03</v>
+      </c>
+      <c r="AD232">
+        <v>13</v>
+      </c>
+      <c r="AE232">
+        <v>1.22</v>
+      </c>
+      <c r="AF232">
+        <v>4.33</v>
+      </c>
+      <c r="AG232">
+        <v>1.65</v>
+      </c>
+      <c r="AH232">
+        <v>2.1</v>
+      </c>
+      <c r="AI232">
+        <v>1.7</v>
+      </c>
+      <c r="AJ232">
+        <v>2.05</v>
+      </c>
+      <c r="AK232">
+        <v>1.2</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>2.15</v>
+      </c>
+      <c r="AN232">
+        <v>1.14</v>
+      </c>
+      <c r="AO232">
+        <v>0.93</v>
+      </c>
+      <c r="AP232">
+        <v>1.27</v>
+      </c>
+      <c r="AQ232">
+        <v>0.87</v>
+      </c>
+      <c r="AR232">
+        <v>1.5</v>
+      </c>
+      <c r="AS232">
+        <v>1.2</v>
+      </c>
+      <c r="AT232">
+        <v>2.7</v>
+      </c>
+      <c r="AU232">
+        <v>8</v>
+      </c>
+      <c r="AV232">
+        <v>4</v>
+      </c>
+      <c r="AW232">
+        <v>6</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>17</v>
+      </c>
+      <c r="AZ232">
+        <v>13</v>
+      </c>
+      <c r="BA232">
+        <v>5</v>
+      </c>
+      <c r="BB232">
+        <v>4</v>
+      </c>
+      <c r="BC232">
+        <v>9</v>
+      </c>
+      <c r="BD232">
+        <v>0</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>0</v>
+      </c>
+      <c r="BG232">
+        <v>0</v>
+      </c>
+      <c r="BH232">
+        <v>0</v>
+      </c>
+      <c r="BI232">
+        <v>0</v>
+      </c>
+      <c r="BJ232">
+        <v>0</v>
+      </c>
+      <c r="BK232">
+        <v>0</v>
+      </c>
+      <c r="BL232">
+        <v>0</v>
+      </c>
+      <c r="BM232">
+        <v>0</v>
+      </c>
+      <c r="BN232">
+        <v>0</v>
+      </c>
+      <c r="BO232">
+        <v>0</v>
+      </c>
+      <c r="BP232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7295193</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F233">
+        <v>29</v>
+      </c>
+      <c r="G233" t="s">
+        <v>76</v>
+      </c>
+      <c r="H233" t="s">
+        <v>83</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>5</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>6</v>
+      </c>
+      <c r="O233" t="s">
+        <v>236</v>
+      </c>
+      <c r="P233" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q233">
+        <v>1.95</v>
+      </c>
+      <c r="R233">
+        <v>2.6</v>
+      </c>
+      <c r="S233">
+        <v>5.5</v>
+      </c>
+      <c r="T233">
+        <v>1.25</v>
+      </c>
+      <c r="U233">
+        <v>3.75</v>
+      </c>
+      <c r="V233">
+        <v>2.2</v>
+      </c>
+      <c r="W233">
+        <v>1.62</v>
+      </c>
+      <c r="X233">
+        <v>5</v>
+      </c>
+      <c r="Y233">
+        <v>1.17</v>
+      </c>
+      <c r="Z233">
+        <v>1.81</v>
+      </c>
+      <c r="AA233">
+        <v>3.32</v>
+      </c>
+      <c r="AB233">
+        <v>3.94</v>
+      </c>
+      <c r="AC233">
+        <v>1.01</v>
+      </c>
+      <c r="AD233">
+        <v>21</v>
+      </c>
+      <c r="AE233">
+        <v>1.15</v>
+      </c>
+      <c r="AF233">
+        <v>5.5</v>
+      </c>
+      <c r="AG233">
+        <v>1.45</v>
+      </c>
+      <c r="AH233">
+        <v>2.55</v>
+      </c>
+      <c r="AI233">
+        <v>1.62</v>
+      </c>
+      <c r="AJ233">
+        <v>2.2</v>
+      </c>
+      <c r="AK233">
+        <v>1.12</v>
+      </c>
+      <c r="AL233">
+        <v>1.15</v>
+      </c>
+      <c r="AM233">
+        <v>2.7</v>
+      </c>
+      <c r="AN233">
+        <v>2.21</v>
+      </c>
+      <c r="AO233">
+        <v>1</v>
+      </c>
+      <c r="AP233">
+        <v>2.27</v>
+      </c>
+      <c r="AQ233">
+        <v>0.93</v>
+      </c>
+      <c r="AR233">
+        <v>1.66</v>
+      </c>
+      <c r="AS233">
+        <v>1.25</v>
+      </c>
+      <c r="AT233">
+        <v>2.91</v>
+      </c>
+      <c r="AU233">
+        <v>15</v>
+      </c>
+      <c r="AV233">
+        <v>5</v>
+      </c>
+      <c r="AW233">
+        <v>13</v>
+      </c>
+      <c r="AX233">
+        <v>4</v>
+      </c>
+      <c r="AY233">
+        <v>33</v>
+      </c>
+      <c r="AZ233">
+        <v>13</v>
+      </c>
+      <c r="BA233">
+        <v>8</v>
+      </c>
+      <c r="BB233">
+        <v>6</v>
+      </c>
+      <c r="BC233">
+        <v>14</v>
+      </c>
+      <c r="BD233">
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <v>0</v>
+      </c>
+      <c r="BF233">
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <v>0</v>
+      </c>
+      <c r="BH233">
+        <v>0</v>
+      </c>
+      <c r="BI233">
+        <v>0</v>
+      </c>
+      <c r="BJ233">
+        <v>0</v>
+      </c>
+      <c r="BK233">
+        <v>0</v>
+      </c>
+      <c r="BL233">
+        <v>0</v>
+      </c>
+      <c r="BM233">
+        <v>0</v>
+      </c>
+      <c r="BN233">
+        <v>0</v>
+      </c>
+      <c r="BO233">
+        <v>0</v>
+      </c>
+      <c r="BP233">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -47789,7 +47789,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F226">
         <v>29</v>
@@ -47995,7 +47995,7 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -48201,7 +48201,7 @@
         <v>69</v>
       </c>
       <c r="E228" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F228">
         <v>29</v>
@@ -48407,7 +48407,7 @@
         <v>69</v>
       </c>
       <c r="E229" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F229">
         <v>29</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -1051,10 +1051,10 @@
     <t>['2', '55']</t>
   </si>
   <si>
-    <t>['9', '59']</t>
+    <t>['39', '47', '89']</t>
   </si>
   <si>
-    <t>['39', '47', '89']</t>
+    <t>['9', '59']</t>
   </si>
   <si>
     <t>['7']</t>
@@ -48604,7 +48604,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7295190</v>
+        <v>7295191</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48613,16 +48613,16 @@
         <v>69</v>
       </c>
       <c r="E230" s="2">
-        <v>45619.54166666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F230">
         <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H230" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -48634,136 +48634,136 @@
         <v>1</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N230">
         <v>3</v>
       </c>
       <c r="O230" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="P230" t="s">
         <v>345</v>
       </c>
       <c r="Q230">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S230">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T230">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U230">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V230">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W230">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X230">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y230">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z230">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="AA230">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="AB230">
-        <v>2.87</v>
+        <v>1.96</v>
       </c>
       <c r="AC230">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD230">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE230">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AF230">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG230">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AH230">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AI230">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AJ230">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AK230">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AL230">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM230">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AN230">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AO230">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP230">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="AQ230">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AR230">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS230">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="AT230">
-        <v>2.29</v>
+        <v>2.69</v>
       </c>
       <c r="AU230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV230">
         <v>8</v>
       </c>
       <c r="AW230">
+        <v>8</v>
+      </c>
+      <c r="AX230">
         <v>3</v>
       </c>
-      <c r="AX230">
-        <v>1</v>
-      </c>
       <c r="AY230">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AZ230">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48810,7 +48810,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7295191</v>
+        <v>7295190</v>
       </c>
       <c r="C231" t="s">
         <v>68</v>
@@ -48825,10 +48825,10 @@
         <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H231" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -48840,136 +48840,136 @@
         <v>1</v>
       </c>
       <c r="L231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N231">
         <v>3</v>
       </c>
       <c r="O231" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="P231" t="s">
         <v>346</v>
       </c>
       <c r="Q231">
+        <v>2.75</v>
+      </c>
+      <c r="R231">
+        <v>2.05</v>
+      </c>
+      <c r="S231">
+        <v>4.33</v>
+      </c>
+      <c r="T231">
+        <v>1.44</v>
+      </c>
+      <c r="U231">
         <v>2.63</v>
       </c>
-      <c r="R231">
-        <v>2.38</v>
-      </c>
-      <c r="S231">
-        <v>3.6</v>
-      </c>
-      <c r="T231">
-        <v>1.3</v>
-      </c>
-      <c r="U231">
-        <v>3.4</v>
-      </c>
       <c r="V231">
+        <v>3.25</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>10</v>
+      </c>
+      <c r="Y231">
+        <v>1.06</v>
+      </c>
+      <c r="Z231">
+        <v>2.78</v>
+      </c>
+      <c r="AA231">
         <v>2.5</v>
       </c>
-      <c r="W231">
-        <v>1.5</v>
-      </c>
-      <c r="X231">
-        <v>6</v>
-      </c>
-      <c r="Y231">
-        <v>1.13</v>
-      </c>
-      <c r="Z231">
-        <v>2.1</v>
-      </c>
-      <c r="AA231">
-        <v>8</v>
-      </c>
       <c r="AB231">
-        <v>1.96</v>
+        <v>2.87</v>
       </c>
       <c r="AC231">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD231">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE231">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AF231">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AG231">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AH231">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AI231">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="AJ231">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AK231">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AL231">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AM231">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AN231">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO231">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP231">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="AQ231">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AR231">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS231">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="AT231">
-        <v>2.69</v>
+        <v>2.29</v>
       </c>
       <c r="AU231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV231">
         <v>8</v>
       </c>
       <c r="AW231">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX231">
+        <v>1</v>
+      </c>
+      <c r="AY231">
+        <v>7</v>
+      </c>
+      <c r="AZ231">
+        <v>11</v>
+      </c>
+      <c r="BA231">
         <v>3</v>
       </c>
-      <c r="AY231">
-        <v>17</v>
-      </c>
-      <c r="AZ231">
-        <v>14</v>
-      </c>
-      <c r="BA231">
+      <c r="BB231">
         <v>4</v>
       </c>
-      <c r="BB231">
-        <v>2</v>
-      </c>
       <c r="BC231">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD231">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -1051,10 +1051,10 @@
     <t>['2', '55']</t>
   </si>
   <si>
-    <t>['39', '47', '89']</t>
+    <t>['9', '59']</t>
   </si>
   <si>
-    <t>['9', '59']</t>
+    <t>['39', '47', '89']</t>
   </si>
   <si>
     <t>['7']</t>
@@ -47995,10 +47995,10 @@
         <v>69</v>
       </c>
       <c r="E227" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>72</v>
@@ -48130,13 +48130,13 @@
         <v>6</v>
       </c>
       <c r="AX227">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY227">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ227">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA227">
         <v>4</v>
@@ -48201,7 +48201,7 @@
         <v>69</v>
       </c>
       <c r="E228" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F228">
         <v>29</v>
@@ -48330,19 +48330,19 @@
         <v>3</v>
       </c>
       <c r="AV228">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW228">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX228">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY228">
         <v>6</v>
       </c>
       <c r="AZ228">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA228">
         <v>0</v>
@@ -48407,7 +48407,7 @@
         <v>69</v>
       </c>
       <c r="E229" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F229">
         <v>29</v>
@@ -48533,31 +48533,31 @@
         <v>2.89</v>
       </c>
       <c r="AU229">
+        <v>6</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>14</v>
+      </c>
+      <c r="AX229">
         <v>5</v>
       </c>
-      <c r="AV229">
-        <v>5</v>
-      </c>
-      <c r="AW229">
-        <v>11</v>
-      </c>
-      <c r="AX229">
-        <v>2</v>
-      </c>
       <c r="AY229">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ229">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA229">
         <v>9</v>
       </c>
       <c r="BB229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC229">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD229">
         <v>0</v>
@@ -48604,7 +48604,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>7295191</v>
+        <v>7295190</v>
       </c>
       <c r="C230" t="s">
         <v>68</v>
@@ -48613,16 +48613,16 @@
         <v>69</v>
       </c>
       <c r="E230" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F230">
         <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H230" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -48634,136 +48634,136 @@
         <v>1</v>
       </c>
       <c r="L230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N230">
         <v>3</v>
       </c>
       <c r="O230" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="P230" t="s">
         <v>345</v>
       </c>
       <c r="Q230">
+        <v>2.75</v>
+      </c>
+      <c r="R230">
+        <v>2.05</v>
+      </c>
+      <c r="S230">
+        <v>4.33</v>
+      </c>
+      <c r="T230">
+        <v>1.44</v>
+      </c>
+      <c r="U230">
         <v>2.63</v>
       </c>
-      <c r="R230">
-        <v>2.38</v>
-      </c>
-      <c r="S230">
-        <v>3.6</v>
-      </c>
-      <c r="T230">
-        <v>1.3</v>
-      </c>
-      <c r="U230">
-        <v>3.4</v>
-      </c>
       <c r="V230">
+        <v>3.25</v>
+      </c>
+      <c r="W230">
+        <v>1.33</v>
+      </c>
+      <c r="X230">
+        <v>10</v>
+      </c>
+      <c r="Y230">
+        <v>1.06</v>
+      </c>
+      <c r="Z230">
+        <v>2.78</v>
+      </c>
+      <c r="AA230">
         <v>2.5</v>
       </c>
-      <c r="W230">
-        <v>1.5</v>
-      </c>
-      <c r="X230">
-        <v>6</v>
-      </c>
-      <c r="Y230">
-        <v>1.13</v>
-      </c>
-      <c r="Z230">
-        <v>2.1</v>
-      </c>
-      <c r="AA230">
-        <v>8</v>
-      </c>
       <c r="AB230">
-        <v>1.96</v>
+        <v>2.87</v>
       </c>
       <c r="AC230">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD230">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE230">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AF230">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AG230">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AH230">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="AI230">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="AJ230">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="AK230">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AL230">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AM230">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AN230">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO230">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP230">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="AQ230">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AR230">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AS230">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="AT230">
-        <v>2.69</v>
+        <v>2.29</v>
       </c>
       <c r="AU230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV230">
         <v>8</v>
       </c>
       <c r="AW230">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX230">
+        <v>1</v>
+      </c>
+      <c r="AY230">
+        <v>7</v>
+      </c>
+      <c r="AZ230">
+        <v>11</v>
+      </c>
+      <c r="BA230">
         <v>3</v>
       </c>
-      <c r="AY230">
-        <v>17</v>
-      </c>
-      <c r="AZ230">
-        <v>14</v>
-      </c>
-      <c r="BA230">
+      <c r="BB230">
         <v>4</v>
       </c>
-      <c r="BB230">
-        <v>2</v>
-      </c>
       <c r="BC230">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD230">
         <v>0</v>
@@ -48810,7 +48810,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>7295190</v>
+        <v>7295191</v>
       </c>
       <c r="C231" t="s">
         <v>68</v>
@@ -48825,10 +48825,10 @@
         <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H231" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -48840,136 +48840,136 @@
         <v>1</v>
       </c>
       <c r="L231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N231">
         <v>3</v>
       </c>
       <c r="O231" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="P231" t="s">
         <v>346</v>
       </c>
       <c r="Q231">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R231">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S231">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T231">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U231">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V231">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W231">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X231">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y231">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z231">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="AA231">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="AB231">
-        <v>2.87</v>
+        <v>1.96</v>
       </c>
       <c r="AC231">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD231">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE231">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AF231">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG231">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AH231">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AI231">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AJ231">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AK231">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AL231">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM231">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AN231">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AO231">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP231">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="AQ231">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AR231">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AS231">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="AT231">
-        <v>2.29</v>
+        <v>2.69</v>
       </c>
       <c r="AU231">
+        <v>3</v>
+      </c>
+      <c r="AV231">
+        <v>5</v>
+      </c>
+      <c r="AW231">
+        <v>14</v>
+      </c>
+      <c r="AX231">
+        <v>7</v>
+      </c>
+      <c r="AY231">
+        <v>17</v>
+      </c>
+      <c r="AZ231">
+        <v>12</v>
+      </c>
+      <c r="BA231">
         <v>4</v>
       </c>
-      <c r="AV231">
-        <v>8</v>
-      </c>
-      <c r="AW231">
-        <v>3</v>
-      </c>
-      <c r="AX231">
-        <v>1</v>
-      </c>
-      <c r="AY231">
-        <v>7</v>
-      </c>
-      <c r="AZ231">
-        <v>11</v>
-      </c>
-      <c r="BA231">
-        <v>3</v>
-      </c>
       <c r="BB231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD231">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -47789,7 +47789,7 @@
         <v>69</v>
       </c>
       <c r="E226" s="2">
-        <v>45618.875</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F226">
         <v>29</v>
@@ -47915,22 +47915,22 @@
         <v>2.62</v>
       </c>
       <c r="AU226">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV226">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW226">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY226">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ226">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA226">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -47915,22 +47915,22 @@
         <v>2.62</v>
       </c>
       <c r="AU226">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV226">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW226">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX226">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY226">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ226">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA226">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,18 @@
     <t>['40', '55', '59', '73', '90']</t>
   </si>
   <si>
+    <t>['72', '79']</t>
+  </si>
+  <si>
+    <t>['30', '90+2']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['41', '45', '52', '72', '78']</t>
+  </si>
+  <si>
     <t>['39', '90+2']</t>
   </si>
   <si>
@@ -982,9 +994,6 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['30', '90+2']</t>
-  </si>
-  <si>
     <t>['61', '80']</t>
   </si>
   <si>
@@ -1058,6 +1067,15 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['24', '48']</t>
+  </si>
+  <si>
+    <t>['20', '49', '68', '78']</t>
+  </si>
+  <si>
+    <t>['12', '48']</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1696,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1884,7 +1902,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2296,7 +2314,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2502,7 +2520,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -3404,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3532,7 +3550,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3610,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3738,7 +3756,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>5.5</v>
@@ -3816,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ12">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4022,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4228,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4356,7 +4374,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q15">
         <v>2.95</v>
@@ -4434,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4562,7 +4580,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q16">
         <v>1.8</v>
@@ -4640,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4768,7 +4786,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4974,7 +4992,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5592,7 +5610,7 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>2.35</v>
@@ -6004,7 +6022,7 @@
         <v>87</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6210,7 +6228,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -6494,7 +6512,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6622,7 +6640,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6703,7 +6721,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6828,7 +6846,7 @@
         <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6906,7 +6924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ27">
         <v>0.87</v>
@@ -7112,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7240,7 +7258,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7318,10 +7336,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>0.59</v>
@@ -7446,7 +7464,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>2.2</v>
@@ -7524,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.39</v>
@@ -7730,10 +7748,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>2.08</v>
@@ -7939,7 +7957,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>1.22</v>
@@ -8064,7 +8082,7 @@
         <v>87</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8142,10 +8160,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ33">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8270,7 +8288,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>2.47</v>
@@ -8348,10 +8366,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ34">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8476,7 +8494,7 @@
         <v>108</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>4.45</v>
@@ -9094,7 +9112,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>2.54</v>
@@ -9172,7 +9190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>0.87</v>
@@ -9300,7 +9318,7 @@
         <v>87</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9918,7 +9936,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q42">
         <v>3.3</v>
@@ -9999,7 +10017,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10202,10 +10220,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -10408,10 +10426,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10614,7 +10632,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>1.13</v>
@@ -10820,10 +10838,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10948,7 +10966,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -11029,7 +11047,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.24</v>
@@ -11232,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ48">
         <v>0.87</v>
@@ -11360,7 +11378,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>4.5</v>
@@ -11438,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ49">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.32</v>
@@ -11647,7 +11665,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR50">
         <v>1.33</v>
@@ -11772,7 +11790,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>2.01</v>
@@ -11853,7 +11871,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.86</v>
@@ -11978,7 +11996,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>5.15</v>
@@ -12056,7 +12074,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>1.87</v>
@@ -12262,10 +12280,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR53">
         <v>1.7</v>
@@ -12390,7 +12408,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>3.12</v>
@@ -12471,7 +12489,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.82</v>
@@ -12596,7 +12614,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12674,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ55">
         <v>0.93</v>
@@ -12880,7 +12898,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ56">
         <v>1.47</v>
@@ -13089,7 +13107,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13214,7 +13232,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>3.75</v>
@@ -13420,7 +13438,7 @@
         <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q59">
         <v>5.44</v>
@@ -13501,7 +13519,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ59">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.19</v>
@@ -13626,7 +13644,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13707,7 +13725,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.09</v>
@@ -14116,7 +14134,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
         <v>0.73</v>
@@ -14244,7 +14262,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>2.15</v>
@@ -14325,7 +14343,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14450,7 +14468,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>2.31</v>
@@ -14528,7 +14546,7 @@
         <v>0.6</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14734,7 +14752,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65">
         <v>0.87</v>
@@ -14940,10 +14958,10 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR66">
         <v>1.51</v>
@@ -15068,7 +15086,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>4.33</v>
@@ -15146,7 +15164,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>1.93</v>
@@ -15274,7 +15292,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15352,10 +15370,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15558,7 +15576,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ69">
         <v>0.93</v>
@@ -15764,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ70">
         <v>1.87</v>
@@ -15973,7 +15991,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ71">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -16098,7 +16116,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q72">
         <v>2.88</v>
@@ -16179,7 +16197,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
         <v>1.23</v>
@@ -16304,7 +16322,7 @@
         <v>135</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>1.95</v>
@@ -16510,7 +16528,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>2.95</v>
@@ -16591,7 +16609,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.59</v>
@@ -16716,7 +16734,7 @@
         <v>137</v>
       </c>
       <c r="P75" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>1.66</v>
@@ -16794,10 +16812,10 @@
         <v>2.5</v>
       </c>
       <c r="AP75">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -17003,7 +17021,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR76">
         <v>1.37</v>
@@ -17128,7 +17146,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -17412,7 +17430,7 @@
         <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>0.73</v>
@@ -17621,7 +17639,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.07</v>
@@ -17746,7 +17764,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>2.62</v>
@@ -17824,7 +17842,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>0.87</v>
@@ -18158,7 +18176,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18236,10 +18254,10 @@
         <v>1.75</v>
       </c>
       <c r="AP82">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>2.05</v>
@@ -18445,7 +18463,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR83">
         <v>1.53</v>
@@ -18648,7 +18666,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0.87</v>
@@ -18776,7 +18794,7 @@
         <v>146</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>1.57</v>
@@ -18854,7 +18872,7 @@
         <v>0.2</v>
       </c>
       <c r="AP85">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ85">
         <v>0.73</v>
@@ -18982,7 +19000,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>4.5</v>
@@ -19060,7 +19078,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ86">
         <v>1.93</v>
@@ -19188,7 +19206,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>2.15</v>
@@ -19269,7 +19287,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR87">
         <v>1.72</v>
@@ -19394,7 +19412,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>2.75</v>
@@ -19678,10 +19696,10 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR89">
         <v>1.54</v>
@@ -19884,7 +19902,7 @@
         <v>2.4</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
         <v>1.87</v>
@@ -20012,7 +20030,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20093,7 +20111,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR91">
         <v>1.59</v>
@@ -20218,7 +20236,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20296,7 +20314,7 @@
         <v>1.4</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
         <v>1.47</v>
@@ -20505,7 +20523,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20630,7 +20648,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q94">
         <v>2.6</v>
@@ -20708,7 +20726,7 @@
         <v>0.86</v>
       </c>
       <c r="AP94">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
         <v>1.13</v>
@@ -20836,7 +20854,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>2.5</v>
@@ -20917,7 +20935,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ95">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21120,7 +21138,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>0.87</v>
@@ -21248,7 +21266,7 @@
         <v>156</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -21326,7 +21344,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>1.87</v>
@@ -21454,7 +21472,7 @@
         <v>157</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>2.6</v>
@@ -21660,7 +21678,7 @@
         <v>87</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21741,7 +21759,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ99">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21866,7 +21884,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>2.1</v>
@@ -21947,7 +21965,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22072,7 +22090,7 @@
         <v>117</v>
       </c>
       <c r="P101" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>3.1</v>
@@ -22150,10 +22168,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22356,7 +22374,7 @@
         <v>2</v>
       </c>
       <c r="AP102">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ102">
         <v>1.93</v>
@@ -22565,7 +22583,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR103">
         <v>1.74</v>
@@ -22768,10 +22786,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -22896,7 +22914,7 @@
         <v>116</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>2.75</v>
@@ -22974,7 +22992,7 @@
         <v>1.17</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ105">
         <v>1.47</v>
@@ -23102,7 +23120,7 @@
         <v>98</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q106">
         <v>3.4</v>
@@ -23183,7 +23201,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ106">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR106">
         <v>1.67</v>
@@ -23308,7 +23326,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23389,7 +23407,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ107">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.41</v>
@@ -23592,7 +23610,7 @@
         <v>0.43</v>
       </c>
       <c r="AP108">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>0.73</v>
@@ -23798,10 +23816,10 @@
         <v>2</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR109">
         <v>1.43</v>
@@ -23926,7 +23944,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>2.85</v>
@@ -24004,10 +24022,10 @@
         <v>0.67</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24213,7 +24231,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ111">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR111">
         <v>1.22</v>
@@ -24338,7 +24356,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>2.95</v>
@@ -24544,7 +24562,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2.63</v>
@@ -24750,7 +24768,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -24828,7 +24846,7 @@
         <v>2.57</v>
       </c>
       <c r="AP114">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.87</v>
@@ -25162,7 +25180,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>1.7</v>
@@ -25240,7 +25258,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.93</v>
@@ -25368,7 +25386,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q117">
         <v>2.6</v>
@@ -25449,7 +25467,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR117">
         <v>1.45</v>
@@ -25652,10 +25670,10 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ118">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR118">
         <v>1.59</v>
@@ -25858,7 +25876,7 @@
         <v>1.71</v>
       </c>
       <c r="AP119">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.93</v>
@@ -25986,7 +26004,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>1.75</v>
@@ -26067,7 +26085,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR120">
         <v>1.74</v>
@@ -26192,7 +26210,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>2.63</v>
@@ -26270,10 +26288,10 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR121">
         <v>1.59</v>
@@ -26476,10 +26494,10 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR122">
         <v>1.3</v>
@@ -26682,10 +26700,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR123">
         <v>1.15</v>
@@ -26810,7 +26828,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -27016,7 +27034,7 @@
         <v>174</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q125">
         <v>2.75</v>
@@ -27097,7 +27115,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ125">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR125">
         <v>1.26</v>
@@ -27222,7 +27240,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>2.4</v>
@@ -27634,7 +27652,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>2.5</v>
@@ -27712,7 +27730,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ128">
         <v>0.93</v>
@@ -28127,7 +28145,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ130">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.58</v>
@@ -28252,7 +28270,7 @@
         <v>178</v>
       </c>
       <c r="P131" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>1.62</v>
@@ -28330,7 +28348,7 @@
         <v>1.14</v>
       </c>
       <c r="AP131">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ131">
         <v>0.93</v>
@@ -28539,7 +28557,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28664,7 +28682,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28742,7 +28760,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133">
         <v>1.93</v>
@@ -28948,10 +28966,10 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR134">
         <v>1.43</v>
@@ -29076,7 +29094,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q135">
         <v>3.5</v>
@@ -29154,10 +29172,10 @@
         <v>1.57</v>
       </c>
       <c r="AP135">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ135">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29282,7 +29300,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>2.38</v>
@@ -29360,7 +29378,7 @@
         <v>0.5</v>
       </c>
       <c r="AP136">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>0.73</v>
@@ -29569,7 +29587,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29694,7 +29712,7 @@
         <v>184</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>2.7</v>
@@ -29772,7 +29790,7 @@
         <v>1.11</v>
       </c>
       <c r="AP138">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ138">
         <v>0.87</v>
@@ -29978,7 +29996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -30393,7 +30411,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ141">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR141">
         <v>1.48</v>
@@ -30724,7 +30742,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>3.4</v>
@@ -30805,7 +30823,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ143">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR143">
         <v>1.35</v>
@@ -31136,7 +31154,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>2.65</v>
@@ -31214,10 +31232,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ145">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR145">
         <v>1.52</v>
@@ -31342,7 +31360,7 @@
         <v>87</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>3.25</v>
@@ -31548,7 +31566,7 @@
         <v>188</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>2.2</v>
@@ -31626,7 +31644,7 @@
         <v>0.89</v>
       </c>
       <c r="AP147">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.93</v>
@@ -31832,10 +31850,10 @@
         <v>1</v>
       </c>
       <c r="AP148">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ148">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -32041,7 +32059,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR149">
         <v>1.41</v>
@@ -32166,7 +32184,7 @@
         <v>189</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>2.75</v>
@@ -32247,7 +32265,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ150">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR150">
         <v>1.52</v>
@@ -32453,7 +32471,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ151">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
         <v>1.45</v>
@@ -32656,7 +32674,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ152">
         <v>1.47</v>
@@ -32865,7 +32883,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -33274,7 +33292,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ155">
         <v>0.87</v>
@@ -33402,7 +33420,7 @@
         <v>194</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>2.1</v>
@@ -33686,10 +33704,10 @@
         <v>1.89</v>
       </c>
       <c r="AP157">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33814,7 +33832,7 @@
         <v>86</v>
       </c>
       <c r="P158" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3.5</v>
@@ -33895,7 +33913,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ158">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -34101,7 +34119,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ159">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34307,7 +34325,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34510,7 +34528,7 @@
         <v>0.44</v>
       </c>
       <c r="AP161">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ161">
         <v>0.73</v>
@@ -34638,7 +34656,7 @@
         <v>87</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>4.33</v>
@@ -34716,7 +34734,7 @@
         <v>2</v>
       </c>
       <c r="AP162">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ162">
         <v>1.87</v>
@@ -34844,7 +34862,7 @@
         <v>197</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q163">
         <v>2.85</v>
@@ -34922,7 +34940,7 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>0.93</v>
@@ -35050,7 +35068,7 @@
         <v>97</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>2.82</v>
@@ -35131,7 +35149,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ164">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -35256,7 +35274,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35337,7 +35355,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ165">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35462,7 +35480,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>1.8</v>
@@ -35540,7 +35558,7 @@
         <v>1.2</v>
       </c>
       <c r="AP166">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>1.47</v>
@@ -35746,7 +35764,7 @@
         <v>1.36</v>
       </c>
       <c r="AP167">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ167">
         <v>1.13</v>
@@ -35955,7 +35973,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR168">
         <v>1.59</v>
@@ -36080,7 +36098,7 @@
         <v>201</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>2.25</v>
@@ -36161,7 +36179,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR169">
         <v>1.73</v>
@@ -36367,7 +36385,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR170">
         <v>1.14</v>
@@ -36570,7 +36588,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ171">
         <v>0.87</v>
@@ -36698,7 +36716,7 @@
         <v>202</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="Q172">
         <v>3.75</v>
@@ -36776,7 +36794,7 @@
         <v>1.9</v>
       </c>
       <c r="AP172">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ172">
         <v>1.93</v>
@@ -36904,7 +36922,7 @@
         <v>87</v>
       </c>
       <c r="P173" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>2.2</v>
@@ -36982,7 +37000,7 @@
         <v>0.6</v>
       </c>
       <c r="AP173">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>0.87</v>
@@ -37191,7 +37209,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ174">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR174">
         <v>1.34</v>
@@ -37316,7 +37334,7 @@
         <v>87</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>5.05</v>
@@ -37394,10 +37412,10 @@
         <v>1.7</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ175">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR175">
         <v>1.42</v>
@@ -37600,10 +37618,10 @@
         <v>1.8</v>
       </c>
       <c r="AP176">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR176">
         <v>1.89</v>
@@ -37806,7 +37824,7 @@
         <v>1.36</v>
       </c>
       <c r="AP177">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ177">
         <v>1.47</v>
@@ -38012,10 +38030,10 @@
         <v>1.09</v>
       </c>
       <c r="AP178">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ178">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR178">
         <v>1.23</v>
@@ -38218,7 +38236,7 @@
         <v>2.09</v>
       </c>
       <c r="AP179">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ179">
         <v>1.87</v>
@@ -38836,10 +38854,10 @@
         <v>0.8</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR182">
         <v>1.39</v>
@@ -38964,7 +38982,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>2.8</v>
@@ -39045,7 +39063,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ183">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
         <v>1.29</v>
@@ -39170,7 +39188,7 @@
         <v>211</v>
       </c>
       <c r="P184" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39251,7 +39269,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ184">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39376,7 +39394,7 @@
         <v>212</v>
       </c>
       <c r="P185" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>1.91</v>
@@ -39457,7 +39475,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR185">
         <v>1.79</v>
@@ -39660,7 +39678,7 @@
         <v>1.82</v>
       </c>
       <c r="AP186">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ186">
         <v>1.93</v>
@@ -39788,7 +39806,7 @@
         <v>87</v>
       </c>
       <c r="P187" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q187">
         <v>2.88</v>
@@ -39866,10 +39884,10 @@
         <v>1.55</v>
       </c>
       <c r="AP187">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR187">
         <v>1.57</v>
@@ -40072,7 +40090,7 @@
         <v>1.25</v>
       </c>
       <c r="AP188">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188">
         <v>1.13</v>
@@ -40278,7 +40296,7 @@
         <v>0.82</v>
       </c>
       <c r="AP189">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ189">
         <v>0.87</v>
@@ -40406,7 +40424,7 @@
         <v>116</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q190">
         <v>3.2</v>
@@ -40487,7 +40505,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ190">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR190">
         <v>1.31</v>
@@ -40612,7 +40630,7 @@
         <v>101</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q191">
         <v>3.5</v>
@@ -40693,7 +40711,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ191">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR191">
         <v>1.14</v>
@@ -40896,10 +40914,10 @@
         <v>0.82</v>
       </c>
       <c r="AP192">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ192">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR192">
         <v>1.5</v>
@@ -41102,7 +41120,7 @@
         <v>0.45</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
         <v>0.73</v>
@@ -41642,7 +41660,7 @@
         <v>153</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q196">
         <v>2.75</v>
@@ -41848,7 +41866,7 @@
         <v>215</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>1.8</v>
@@ -41929,7 +41947,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ197">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR197">
         <v>1.56</v>
@@ -42260,7 +42278,7 @@
         <v>87</v>
       </c>
       <c r="P199" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q199">
         <v>2.63</v>
@@ -42338,7 +42356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP199">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ199">
         <v>1.47</v>
@@ -42544,7 +42562,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ200">
         <v>0.87</v>
@@ -42753,7 +42771,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ201">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR201">
         <v>1.32</v>
@@ -42956,10 +42974,10 @@
         <v>1.67</v>
       </c>
       <c r="AP202">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ202">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR202">
         <v>1.6</v>
@@ -43162,7 +43180,7 @@
         <v>0.75</v>
       </c>
       <c r="AP203">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ203">
         <v>0.87</v>
@@ -43371,7 +43389,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR204">
         <v>1.3</v>
@@ -43496,7 +43514,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q205">
         <v>3</v>
@@ -43574,10 +43592,10 @@
         <v>1.75</v>
       </c>
       <c r="AP205">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR205">
         <v>1.54</v>
@@ -43702,7 +43720,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q206">
         <v>2.88</v>
@@ -43780,10 +43798,10 @@
         <v>1.33</v>
       </c>
       <c r="AP206">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ206">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -43908,7 +43926,7 @@
         <v>87</v>
       </c>
       <c r="P207" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q207">
         <v>4.75</v>
@@ -43986,10 +44004,10 @@
         <v>1.75</v>
       </c>
       <c r="AP207">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ207">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR207">
         <v>1.37</v>
@@ -44192,10 +44210,10 @@
         <v>1.17</v>
       </c>
       <c r="AP208">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR208">
         <v>1.86</v>
@@ -44320,7 +44338,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>2</v>
@@ -44398,10 +44416,10 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ209">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR209">
         <v>1.75</v>
@@ -44526,7 +44544,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q210">
         <v>2</v>
@@ -44938,7 +44956,7 @@
         <v>87</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q212">
         <v>5.5</v>
@@ -45144,7 +45162,7 @@
         <v>225</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>2.88</v>
@@ -45350,7 +45368,7 @@
         <v>226</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45556,7 +45574,7 @@
         <v>227</v>
       </c>
       <c r="P215" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46252,10 +46270,10 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AQ218">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR218">
         <v>1.85</v>
@@ -46380,7 +46398,7 @@
         <v>230</v>
       </c>
       <c r="P219" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q219">
         <v>3.95</v>
@@ -46458,10 +46476,10 @@
         <v>1.85</v>
       </c>
       <c r="AP219">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ219">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR219">
         <v>1.53</v>
@@ -46586,7 +46604,7 @@
         <v>87</v>
       </c>
       <c r="P220" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>3.6</v>
@@ -46664,10 +46682,10 @@
         <v>1.15</v>
       </c>
       <c r="AP220">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ220">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR220">
         <v>1.32</v>
@@ -46870,10 +46888,10 @@
         <v>1.08</v>
       </c>
       <c r="AP221">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR221">
         <v>1.38</v>
@@ -47076,10 +47094,10 @@
         <v>1.46</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ222">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR222">
         <v>1.39</v>
@@ -47282,10 +47300,10 @@
         <v>1.62</v>
       </c>
       <c r="AP223">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR223">
         <v>1.58</v>
@@ -47488,10 +47506,10 @@
         <v>0.77</v>
       </c>
       <c r="AP224">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ224">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR224">
         <v>1.5</v>
@@ -47616,7 +47634,7 @@
         <v>233</v>
       </c>
       <c r="P225" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q225">
         <v>1.83</v>
@@ -47694,10 +47712,10 @@
         <v>1.54</v>
       </c>
       <c r="AP225">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ225">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR225">
         <v>1.77</v>
@@ -48234,7 +48252,7 @@
         <v>87</v>
       </c>
       <c r="P228" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48646,7 +48664,7 @@
         <v>211</v>
       </c>
       <c r="P230" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q230">
         <v>2.75</v>
@@ -48852,7 +48870,7 @@
         <v>87</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>2.63</v>
@@ -49264,7 +49282,7 @@
         <v>236</v>
       </c>
       <c r="P233" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q233">
         <v>1.95</v>
@@ -49421,6 +49439,1654 @@
       </c>
       <c r="BP233">
         <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7295198</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F234">
+        <v>30</v>
+      </c>
+      <c r="G234" t="s">
+        <v>85</v>
+      </c>
+      <c r="H234" t="s">
+        <v>71</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>87</v>
+      </c>
+      <c r="P234" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q234">
+        <v>3</v>
+      </c>
+      <c r="R234">
+        <v>2.2</v>
+      </c>
+      <c r="S234">
+        <v>3.4</v>
+      </c>
+      <c r="T234">
+        <v>1.36</v>
+      </c>
+      <c r="U234">
+        <v>3</v>
+      </c>
+      <c r="V234">
+        <v>2.63</v>
+      </c>
+      <c r="W234">
+        <v>1.44</v>
+      </c>
+      <c r="X234">
+        <v>7</v>
+      </c>
+      <c r="Y234">
+        <v>1.1</v>
+      </c>
+      <c r="Z234">
+        <v>2.34</v>
+      </c>
+      <c r="AA234">
+        <v>3.14</v>
+      </c>
+      <c r="AB234">
+        <v>2.59</v>
+      </c>
+      <c r="AC234">
+        <v>1.05</v>
+      </c>
+      <c r="AD234">
+        <v>9.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.25</v>
+      </c>
+      <c r="AF234">
+        <v>3.7</v>
+      </c>
+      <c r="AG234">
+        <v>1.88</v>
+      </c>
+      <c r="AH234">
+        <v>1.96</v>
+      </c>
+      <c r="AI234">
+        <v>1.62</v>
+      </c>
+      <c r="AJ234">
+        <v>2.2</v>
+      </c>
+      <c r="AK234">
+        <v>1.4</v>
+      </c>
+      <c r="AL234">
+        <v>1.25</v>
+      </c>
+      <c r="AM234">
+        <v>1.55</v>
+      </c>
+      <c r="AN234">
+        <v>1.64</v>
+      </c>
+      <c r="AO234">
+        <v>1.5</v>
+      </c>
+      <c r="AP234">
+        <v>1.53</v>
+      </c>
+      <c r="AQ234">
+        <v>1.6</v>
+      </c>
+      <c r="AR234">
+        <v>1.46</v>
+      </c>
+      <c r="AS234">
+        <v>1.14</v>
+      </c>
+      <c r="AT234">
+        <v>2.6</v>
+      </c>
+      <c r="AU234">
+        <v>3</v>
+      </c>
+      <c r="AV234">
+        <v>2</v>
+      </c>
+      <c r="AW234">
+        <v>5</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>14</v>
+      </c>
+      <c r="AZ234">
+        <v>8</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
+        <v>2</v>
+      </c>
+      <c r="BC234">
+        <v>6</v>
+      </c>
+      <c r="BD234">
+        <v>1.84</v>
+      </c>
+      <c r="BE234">
+        <v>6.5</v>
+      </c>
+      <c r="BF234">
+        <v>2.05</v>
+      </c>
+      <c r="BG234">
+        <v>1.23</v>
+      </c>
+      <c r="BH234">
+        <v>3.65</v>
+      </c>
+      <c r="BI234">
+        <v>1.41</v>
+      </c>
+      <c r="BJ234">
+        <v>2.65</v>
+      </c>
+      <c r="BK234">
+        <v>1.67</v>
+      </c>
+      <c r="BL234">
+        <v>2.07</v>
+      </c>
+      <c r="BM234">
+        <v>2.02</v>
+      </c>
+      <c r="BN234">
+        <v>1.68</v>
+      </c>
+      <c r="BO234">
+        <v>2.55</v>
+      </c>
+      <c r="BP234">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7295199</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F235">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>83</v>
+      </c>
+      <c r="H235" t="s">
+        <v>70</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>237</v>
+      </c>
+      <c r="P235" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q235">
+        <v>2.3</v>
+      </c>
+      <c r="R235">
+        <v>2.3</v>
+      </c>
+      <c r="S235">
+        <v>4.75</v>
+      </c>
+      <c r="T235">
+        <v>1.33</v>
+      </c>
+      <c r="U235">
+        <v>3.25</v>
+      </c>
+      <c r="V235">
+        <v>2.63</v>
+      </c>
+      <c r="W235">
+        <v>1.44</v>
+      </c>
+      <c r="X235">
+        <v>6.5</v>
+      </c>
+      <c r="Y235">
+        <v>1.11</v>
+      </c>
+      <c r="Z235">
+        <v>1.69</v>
+      </c>
+      <c r="AA235">
+        <v>3.48</v>
+      </c>
+      <c r="AB235">
+        <v>4.02</v>
+      </c>
+      <c r="AC235">
+        <v>1.04</v>
+      </c>
+      <c r="AD235">
+        <v>10</v>
+      </c>
+      <c r="AE235">
+        <v>1.22</v>
+      </c>
+      <c r="AF235">
+        <v>4</v>
+      </c>
+      <c r="AG235">
+        <v>1.73</v>
+      </c>
+      <c r="AH235">
+        <v>2</v>
+      </c>
+      <c r="AI235">
+        <v>1.7</v>
+      </c>
+      <c r="AJ235">
+        <v>2.05</v>
+      </c>
+      <c r="AK235">
+        <v>1.2</v>
+      </c>
+      <c r="AL235">
+        <v>1.2</v>
+      </c>
+      <c r="AM235">
+        <v>2.05</v>
+      </c>
+      <c r="AN235">
+        <v>1.14</v>
+      </c>
+      <c r="AO235">
+        <v>0.71</v>
+      </c>
+      <c r="AP235">
+        <v>1.27</v>
+      </c>
+      <c r="AQ235">
+        <v>0.67</v>
+      </c>
+      <c r="AR235">
+        <v>1.38</v>
+      </c>
+      <c r="AS235">
+        <v>0.93</v>
+      </c>
+      <c r="AT235">
+        <v>2.31</v>
+      </c>
+      <c r="AU235">
+        <v>6</v>
+      </c>
+      <c r="AV235">
+        <v>8</v>
+      </c>
+      <c r="AW235">
+        <v>3</v>
+      </c>
+      <c r="AX235">
+        <v>6</v>
+      </c>
+      <c r="AY235">
+        <v>12</v>
+      </c>
+      <c r="AZ235">
+        <v>17</v>
+      </c>
+      <c r="BA235">
+        <v>5</v>
+      </c>
+      <c r="BB235">
+        <v>6</v>
+      </c>
+      <c r="BC235">
+        <v>11</v>
+      </c>
+      <c r="BD235">
+        <v>1.5</v>
+      </c>
+      <c r="BE235">
+        <v>6.75</v>
+      </c>
+      <c r="BF235">
+        <v>2.65</v>
+      </c>
+      <c r="BG235">
+        <v>1.21</v>
+      </c>
+      <c r="BH235">
+        <v>3.8</v>
+      </c>
+      <c r="BI235">
+        <v>1.38</v>
+      </c>
+      <c r="BJ235">
+        <v>2.8</v>
+      </c>
+      <c r="BK235">
+        <v>1.63</v>
+      </c>
+      <c r="BL235">
+        <v>2.15</v>
+      </c>
+      <c r="BM235">
+        <v>1.97</v>
+      </c>
+      <c r="BN235">
+        <v>1.74</v>
+      </c>
+      <c r="BO235">
+        <v>2.43</v>
+      </c>
+      <c r="BP235">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7295197</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F236">
+        <v>30</v>
+      </c>
+      <c r="G236" t="s">
+        <v>82</v>
+      </c>
+      <c r="H236" t="s">
+        <v>72</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>199</v>
+      </c>
+      <c r="P236" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>2.5</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>1.25</v>
+      </c>
+      <c r="U236">
+        <v>3.75</v>
+      </c>
+      <c r="V236">
+        <v>2.2</v>
+      </c>
+      <c r="W236">
+        <v>1.62</v>
+      </c>
+      <c r="X236">
+        <v>5</v>
+      </c>
+      <c r="Y236">
+        <v>1.17</v>
+      </c>
+      <c r="Z236">
+        <v>4.68</v>
+      </c>
+      <c r="AA236">
+        <v>4.05</v>
+      </c>
+      <c r="AB236">
+        <v>1.5</v>
+      </c>
+      <c r="AC236">
+        <v>1.01</v>
+      </c>
+      <c r="AD236">
+        <v>17</v>
+      </c>
+      <c r="AE236">
+        <v>1.14</v>
+      </c>
+      <c r="AF236">
+        <v>5.5</v>
+      </c>
+      <c r="AG236">
+        <v>1.45</v>
+      </c>
+      <c r="AH236">
+        <v>2.55</v>
+      </c>
+      <c r="AI236">
+        <v>1.57</v>
+      </c>
+      <c r="AJ236">
+        <v>2.25</v>
+      </c>
+      <c r="AK236">
+        <v>2.38</v>
+      </c>
+      <c r="AL236">
+        <v>1.15</v>
+      </c>
+      <c r="AM236">
+        <v>1.15</v>
+      </c>
+      <c r="AN236">
+        <v>1.57</v>
+      </c>
+      <c r="AO236">
+        <v>1.79</v>
+      </c>
+      <c r="AP236">
+        <v>1.67</v>
+      </c>
+      <c r="AQ236">
+        <v>1.67</v>
+      </c>
+      <c r="AR236">
+        <v>1.54</v>
+      </c>
+      <c r="AS236">
+        <v>1.39</v>
+      </c>
+      <c r="AT236">
+        <v>2.93</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>5</v>
+      </c>
+      <c r="AW236">
+        <v>8</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>13</v>
+      </c>
+      <c r="BA236">
+        <v>2</v>
+      </c>
+      <c r="BB236">
+        <v>3</v>
+      </c>
+      <c r="BC236">
+        <v>5</v>
+      </c>
+      <c r="BD236">
+        <v>2.95</v>
+      </c>
+      <c r="BE236">
+        <v>7</v>
+      </c>
+      <c r="BF236">
+        <v>1.4</v>
+      </c>
+      <c r="BG236">
+        <v>1.18</v>
+      </c>
+      <c r="BH236">
+        <v>4.3</v>
+      </c>
+      <c r="BI236">
+        <v>1.3</v>
+      </c>
+      <c r="BJ236">
+        <v>3.05</v>
+      </c>
+      <c r="BK236">
+        <v>1.5</v>
+      </c>
+      <c r="BL236">
+        <v>2.4</v>
+      </c>
+      <c r="BM236">
+        <v>1.78</v>
+      </c>
+      <c r="BN236">
+        <v>1.91</v>
+      </c>
+      <c r="BO236">
+        <v>2.18</v>
+      </c>
+      <c r="BP236">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7295200</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F237">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
+        <v>81</v>
+      </c>
+      <c r="H237" t="s">
+        <v>73</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>2</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>238</v>
+      </c>
+      <c r="P237" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q237">
+        <v>2.88</v>
+      </c>
+      <c r="R237">
+        <v>2.25</v>
+      </c>
+      <c r="S237">
+        <v>3.4</v>
+      </c>
+      <c r="T237">
+        <v>1.33</v>
+      </c>
+      <c r="U237">
+        <v>3.25</v>
+      </c>
+      <c r="V237">
+        <v>2.63</v>
+      </c>
+      <c r="W237">
+        <v>1.44</v>
+      </c>
+      <c r="X237">
+        <v>6.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.11</v>
+      </c>
+      <c r="Z237">
+        <v>2.23</v>
+      </c>
+      <c r="AA237">
+        <v>3.24</v>
+      </c>
+      <c r="AB237">
+        <v>2.69</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.22</v>
+      </c>
+      <c r="AF237">
+        <v>4</v>
+      </c>
+      <c r="AG237">
+        <v>1.67</v>
+      </c>
+      <c r="AH237">
+        <v>2.05</v>
+      </c>
+      <c r="AI237">
+        <v>1.57</v>
+      </c>
+      <c r="AJ237">
+        <v>2.25</v>
+      </c>
+      <c r="AK237">
+        <v>1.38</v>
+      </c>
+      <c r="AL237">
+        <v>1.25</v>
+      </c>
+      <c r="AM237">
+        <v>1.6</v>
+      </c>
+      <c r="AN237">
+        <v>0.86</v>
+      </c>
+      <c r="AO237">
+        <v>1</v>
+      </c>
+      <c r="AP237">
+        <v>1</v>
+      </c>
+      <c r="AQ237">
+        <v>0.93</v>
+      </c>
+      <c r="AR237">
+        <v>1.5</v>
+      </c>
+      <c r="AS237">
+        <v>1.22</v>
+      </c>
+      <c r="AT237">
+        <v>2.72</v>
+      </c>
+      <c r="AU237">
+        <v>6</v>
+      </c>
+      <c r="AV237">
+        <v>2</v>
+      </c>
+      <c r="AW237">
+        <v>4</v>
+      </c>
+      <c r="AX237">
+        <v>3</v>
+      </c>
+      <c r="AY237">
+        <v>15</v>
+      </c>
+      <c r="AZ237">
+        <v>5</v>
+      </c>
+      <c r="BA237">
+        <v>7</v>
+      </c>
+      <c r="BB237">
+        <v>2</v>
+      </c>
+      <c r="BC237">
+        <v>9</v>
+      </c>
+      <c r="BD237">
+        <v>1.79</v>
+      </c>
+      <c r="BE237">
+        <v>6.5</v>
+      </c>
+      <c r="BF237">
+        <v>2.08</v>
+      </c>
+      <c r="BG237">
+        <v>1.22</v>
+      </c>
+      <c r="BH237">
+        <v>3.8</v>
+      </c>
+      <c r="BI237">
+        <v>1.38</v>
+      </c>
+      <c r="BJ237">
+        <v>2.75</v>
+      </c>
+      <c r="BK237">
+        <v>1.64</v>
+      </c>
+      <c r="BL237">
+        <v>2.1</v>
+      </c>
+      <c r="BM237">
+        <v>2</v>
+      </c>
+      <c r="BN237">
+        <v>1.71</v>
+      </c>
+      <c r="BO237">
+        <v>2.48</v>
+      </c>
+      <c r="BP237">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7295195</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F238">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
+        <v>84</v>
+      </c>
+      <c r="H238" t="s">
+        <v>76</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>239</v>
+      </c>
+      <c r="P238" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q238">
+        <v>2.25</v>
+      </c>
+      <c r="R238">
+        <v>2.6</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.22</v>
+      </c>
+      <c r="U238">
+        <v>4</v>
+      </c>
+      <c r="V238">
+        <v>2</v>
+      </c>
+      <c r="W238">
+        <v>1.73</v>
+      </c>
+      <c r="X238">
+        <v>4.33</v>
+      </c>
+      <c r="Y238">
+        <v>1.2</v>
+      </c>
+      <c r="Z238">
+        <v>1.74</v>
+      </c>
+      <c r="AA238">
+        <v>4.01</v>
+      </c>
+      <c r="AB238">
+        <v>3.59</v>
+      </c>
+      <c r="AC238">
+        <v>1.01</v>
+      </c>
+      <c r="AD238">
+        <v>17</v>
+      </c>
+      <c r="AE238">
+        <v>1.12</v>
+      </c>
+      <c r="AF238">
+        <v>6</v>
+      </c>
+      <c r="AG238">
+        <v>1.35</v>
+      </c>
+      <c r="AH238">
+        <v>3.2</v>
+      </c>
+      <c r="AI238">
+        <v>1.4</v>
+      </c>
+      <c r="AJ238">
+        <v>2.75</v>
+      </c>
+      <c r="AK238">
+        <v>1.22</v>
+      </c>
+      <c r="AL238">
+        <v>1.18</v>
+      </c>
+      <c r="AM238">
+        <v>2</v>
+      </c>
+      <c r="AN238">
+        <v>2.07</v>
+      </c>
+      <c r="AO238">
+        <v>1.57</v>
+      </c>
+      <c r="AP238">
+        <v>2</v>
+      </c>
+      <c r="AQ238">
+        <v>1.53</v>
+      </c>
+      <c r="AR238">
+        <v>1.82</v>
+      </c>
+      <c r="AS238">
+        <v>1.45</v>
+      </c>
+      <c r="AT238">
+        <v>3.27</v>
+      </c>
+      <c r="AU238">
+        <v>5</v>
+      </c>
+      <c r="AV238">
+        <v>4</v>
+      </c>
+      <c r="AW238">
+        <v>3</v>
+      </c>
+      <c r="AX238">
+        <v>1</v>
+      </c>
+      <c r="AY238">
+        <v>12</v>
+      </c>
+      <c r="AZ238">
+        <v>8</v>
+      </c>
+      <c r="BA238">
+        <v>5</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.56</v>
+      </c>
+      <c r="BE238">
+        <v>6.75</v>
+      </c>
+      <c r="BF238">
+        <v>2.5</v>
+      </c>
+      <c r="BG238">
+        <v>1.16</v>
+      </c>
+      <c r="BH238">
+        <v>4.6</v>
+      </c>
+      <c r="BI238">
+        <v>1.28</v>
+      </c>
+      <c r="BJ238">
+        <v>3.3</v>
+      </c>
+      <c r="BK238">
+        <v>1.46</v>
+      </c>
+      <c r="BL238">
+        <v>2.5</v>
+      </c>
+      <c r="BM238">
+        <v>1.73</v>
+      </c>
+      <c r="BN238">
+        <v>1.98</v>
+      </c>
+      <c r="BO238">
+        <v>2.08</v>
+      </c>
+      <c r="BP238">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7295194</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>80</v>
+      </c>
+      <c r="H239" t="s">
+        <v>77</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>87</v>
+      </c>
+      <c r="P239" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q239">
+        <v>3</v>
+      </c>
+      <c r="R239">
+        <v>2.1</v>
+      </c>
+      <c r="S239">
+        <v>3.6</v>
+      </c>
+      <c r="T239">
+        <v>1.4</v>
+      </c>
+      <c r="U239">
+        <v>2.75</v>
+      </c>
+      <c r="V239">
+        <v>3</v>
+      </c>
+      <c r="W239">
+        <v>1.36</v>
+      </c>
+      <c r="X239">
+        <v>8</v>
+      </c>
+      <c r="Y239">
+        <v>1.08</v>
+      </c>
+      <c r="Z239">
+        <v>2.22</v>
+      </c>
+      <c r="AA239">
+        <v>3.09</v>
+      </c>
+      <c r="AB239">
+        <v>2.81</v>
+      </c>
+      <c r="AC239">
+        <v>1.06</v>
+      </c>
+      <c r="AD239">
+        <v>8.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.33</v>
+      </c>
+      <c r="AF239">
+        <v>3.3</v>
+      </c>
+      <c r="AG239">
+        <v>2</v>
+      </c>
+      <c r="AH239">
+        <v>1.84</v>
+      </c>
+      <c r="AI239">
+        <v>1.75</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>1.36</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.6</v>
+      </c>
+      <c r="AN239">
+        <v>1.14</v>
+      </c>
+      <c r="AO239">
+        <v>1.5</v>
+      </c>
+      <c r="AP239">
+        <v>1.07</v>
+      </c>
+      <c r="AQ239">
+        <v>1.6</v>
+      </c>
+      <c r="AR239">
+        <v>1.31</v>
+      </c>
+      <c r="AS239">
+        <v>1.01</v>
+      </c>
+      <c r="AT239">
+        <v>2.32</v>
+      </c>
+      <c r="AU239">
+        <v>3</v>
+      </c>
+      <c r="AV239">
+        <v>11</v>
+      </c>
+      <c r="AW239">
+        <v>5</v>
+      </c>
+      <c r="AX239">
+        <v>5</v>
+      </c>
+      <c r="AY239">
+        <v>14</v>
+      </c>
+      <c r="AZ239">
+        <v>20</v>
+      </c>
+      <c r="BA239">
+        <v>4</v>
+      </c>
+      <c r="BB239">
+        <v>6</v>
+      </c>
+      <c r="BC239">
+        <v>10</v>
+      </c>
+      <c r="BD239">
+        <v>1.81</v>
+      </c>
+      <c r="BE239">
+        <v>6.4</v>
+      </c>
+      <c r="BF239">
+        <v>2.07</v>
+      </c>
+      <c r="BG239">
+        <v>1.26</v>
+      </c>
+      <c r="BH239">
+        <v>3.4</v>
+      </c>
+      <c r="BI239">
+        <v>1.46</v>
+      </c>
+      <c r="BJ239">
+        <v>2.5</v>
+      </c>
+      <c r="BK239">
+        <v>1.73</v>
+      </c>
+      <c r="BL239">
+        <v>1.98</v>
+      </c>
+      <c r="BM239">
+        <v>2.12</v>
+      </c>
+      <c r="BN239">
+        <v>1.63</v>
+      </c>
+      <c r="BO239">
+        <v>2.7</v>
+      </c>
+      <c r="BP239">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7295196</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240" t="s">
+        <v>79</v>
+      </c>
+      <c r="H240" t="s">
+        <v>75</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>4</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>87</v>
+      </c>
+      <c r="P240" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q240">
+        <v>4.75</v>
+      </c>
+      <c r="R240">
+        <v>2.5</v>
+      </c>
+      <c r="S240">
+        <v>2.1</v>
+      </c>
+      <c r="T240">
+        <v>1.29</v>
+      </c>
+      <c r="U240">
+        <v>3.5</v>
+      </c>
+      <c r="V240">
+        <v>2.25</v>
+      </c>
+      <c r="W240">
+        <v>1.57</v>
+      </c>
+      <c r="X240">
+        <v>5.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.14</v>
+      </c>
+      <c r="Z240">
+        <v>4.39</v>
+      </c>
+      <c r="AA240">
+        <v>3.93</v>
+      </c>
+      <c r="AB240">
+        <v>1.56</v>
+      </c>
+      <c r="AC240">
+        <v>1.01</v>
+      </c>
+      <c r="AD240">
+        <v>13</v>
+      </c>
+      <c r="AE240">
+        <v>1.17</v>
+      </c>
+      <c r="AF240">
+        <v>5</v>
+      </c>
+      <c r="AG240">
+        <v>1.53</v>
+      </c>
+      <c r="AH240">
+        <v>2.35</v>
+      </c>
+      <c r="AI240">
+        <v>1.57</v>
+      </c>
+      <c r="AJ240">
+        <v>2.25</v>
+      </c>
+      <c r="AK240">
+        <v>2.3</v>
+      </c>
+      <c r="AL240">
+        <v>1.18</v>
+      </c>
+      <c r="AM240">
+        <v>1.15</v>
+      </c>
+      <c r="AN240">
+        <v>1.5</v>
+      </c>
+      <c r="AO240">
+        <v>1.29</v>
+      </c>
+      <c r="AP240">
+        <v>1.4</v>
+      </c>
+      <c r="AQ240">
+        <v>1.4</v>
+      </c>
+      <c r="AR240">
+        <v>1.38</v>
+      </c>
+      <c r="AS240">
+        <v>1.4</v>
+      </c>
+      <c r="AT240">
+        <v>2.78</v>
+      </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
+      <c r="AV240">
+        <v>8</v>
+      </c>
+      <c r="AW240">
+        <v>3</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>7</v>
+      </c>
+      <c r="AZ240">
+        <v>18</v>
+      </c>
+      <c r="BA240">
+        <v>3</v>
+      </c>
+      <c r="BB240">
+        <v>6</v>
+      </c>
+      <c r="BC240">
+        <v>9</v>
+      </c>
+      <c r="BD240">
+        <v>2.9</v>
+      </c>
+      <c r="BE240">
+        <v>6.75</v>
+      </c>
+      <c r="BF240">
+        <v>1.42</v>
+      </c>
+      <c r="BG240">
+        <v>1.22</v>
+      </c>
+      <c r="BH240">
+        <v>3.8</v>
+      </c>
+      <c r="BI240">
+        <v>1.38</v>
+      </c>
+      <c r="BJ240">
+        <v>2.75</v>
+      </c>
+      <c r="BK240">
+        <v>1.64</v>
+      </c>
+      <c r="BL240">
+        <v>2.1</v>
+      </c>
+      <c r="BM240">
+        <v>1.98</v>
+      </c>
+      <c r="BN240">
+        <v>1.73</v>
+      </c>
+      <c r="BO240">
+        <v>2.48</v>
+      </c>
+      <c r="BP240">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7295201</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241" t="s">
+        <v>78</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>5</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>7</v>
+      </c>
+      <c r="O241" t="s">
+        <v>240</v>
+      </c>
+      <c r="P241" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q241">
+        <v>1.5</v>
+      </c>
+      <c r="R241">
+        <v>3.25</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>1.17</v>
+      </c>
+      <c r="U241">
+        <v>5</v>
+      </c>
+      <c r="V241">
+        <v>1.83</v>
+      </c>
+      <c r="W241">
+        <v>1.83</v>
+      </c>
+      <c r="X241">
+        <v>3.75</v>
+      </c>
+      <c r="Y241">
+        <v>1.25</v>
+      </c>
+      <c r="Z241">
+        <v>1.16</v>
+      </c>
+      <c r="AA241">
+        <v>6.9</v>
+      </c>
+      <c r="AB241">
+        <v>10.5</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>25</v>
+      </c>
+      <c r="AE241">
+        <v>1.08</v>
+      </c>
+      <c r="AF241">
+        <v>7.5</v>
+      </c>
+      <c r="AG241">
+        <v>1.28</v>
+      </c>
+      <c r="AH241">
+        <v>3.3</v>
+      </c>
+      <c r="AI241">
+        <v>1.91</v>
+      </c>
+      <c r="AJ241">
+        <v>1.91</v>
+      </c>
+      <c r="AK241">
+        <v>1.02</v>
+      </c>
+      <c r="AL241">
+        <v>1.06</v>
+      </c>
+      <c r="AM241">
+        <v>5</v>
+      </c>
+      <c r="AN241">
+        <v>2.21</v>
+      </c>
+      <c r="AO241">
+        <v>0.86</v>
+      </c>
+      <c r="AP241">
+        <v>2.27</v>
+      </c>
+      <c r="AQ241">
+        <v>0.8</v>
+      </c>
+      <c r="AR241">
+        <v>1.76</v>
+      </c>
+      <c r="AS241">
+        <v>1.29</v>
+      </c>
+      <c r="AT241">
+        <v>3.05</v>
+      </c>
+      <c r="AU241">
+        <v>12</v>
+      </c>
+      <c r="AV241">
+        <v>4</v>
+      </c>
+      <c r="AW241">
+        <v>1</v>
+      </c>
+      <c r="AX241">
+        <v>2</v>
+      </c>
+      <c r="AY241">
+        <v>19</v>
+      </c>
+      <c r="AZ241">
+        <v>8</v>
+      </c>
+      <c r="BA241">
+        <v>8</v>
+      </c>
+      <c r="BB241">
+        <v>0</v>
+      </c>
+      <c r="BC241">
+        <v>8</v>
+      </c>
+      <c r="BD241">
+        <v>1.16</v>
+      </c>
+      <c r="BE241">
+        <v>9</v>
+      </c>
+      <c r="BF241">
+        <v>5.1</v>
+      </c>
+      <c r="BG241">
+        <v>1.18</v>
+      </c>
+      <c r="BH241">
+        <v>4.1</v>
+      </c>
+      <c r="BI241">
+        <v>1.32</v>
+      </c>
+      <c r="BJ241">
+        <v>3.05</v>
+      </c>
+      <c r="BK241">
+        <v>1.53</v>
+      </c>
+      <c r="BL241">
+        <v>2.3</v>
+      </c>
+      <c r="BM241">
+        <v>1.83</v>
+      </c>
+      <c r="BN241">
+        <v>1.85</v>
+      </c>
+      <c r="BO241">
+        <v>2.25</v>
+      </c>
+      <c r="BP241">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -1072,7 +1072,7 @@
     <t>['24', '48']</t>
   </si>
   <si>
-    <t>['20', '49', '68', '78']</t>
+    <t>['19', '49', '68', '78']</t>
   </si>
   <si>
     <t>['12', '48']</t>
@@ -49599,13 +49599,13 @@
         <v>8</v>
       </c>
       <c r="BA234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB234">
         <v>2</v>
       </c>
       <c r="BC234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD234">
         <v>1.84</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway Eliteserien_2024.xlsx
@@ -50620,13 +50620,13 @@
         <v>5</v>
       </c>
       <c r="AX239">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY239">
         <v>14</v>
       </c>
       <c r="AZ239">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA239">
         <v>4</v>
